--- a/macro.xlsx
+++ b/macro.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanna Muljadi\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\ufm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942148B7-7190-4FB1-A023-E278DD6CF443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBD0633-8B0C-4C24-8552-EEDDE159421F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="pop_comparison" sheetId="2" r:id="rId2"/>
-    <sheet name="Table248 (Page 166)" sheetId="4" r:id="rId3"/>
+    <sheet name="gp" sheetId="1" r:id="rId1"/>
+    <sheet name="gp (2)" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
+    <sheet name="pop_comparison" sheetId="2" r:id="rId4"/>
+    <sheet name="Table248 (Page 166)" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Table248 (Page 166)'!$A$1:$G$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'gp (2)'!$A$1:$D$77</definedName>
+    <definedName name="ExternalData_1" localSheetId="4" hidden="1">'Table248 (Page 166)'!$A$1:$G$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="263">
   <si>
     <t>Aceh</t>
   </si>
@@ -836,6 +839,9 @@
   </si>
   <si>
     <t>difference</t>
+  </si>
+  <si>
+    <t>Daerah Istimewa Yogyakarta</t>
   </si>
 </sst>
 </file>
@@ -874,10 +880,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1235,18 +1240,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1260,7 +1265,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1270,11 +1275,11 @@
       <c r="C2">
         <v>146932.42000000001</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>5407.8549999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1284,11 +1289,11 @@
       <c r="C3">
         <v>602235.94999999995</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>15115.206</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1298,11 +1303,11 @@
       <c r="C4">
         <v>191070.55</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>5640.6289999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1312,11 +1317,11 @@
       <c r="C5">
         <v>551828.49</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>6614.384</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1326,11 +1331,11 @@
       <c r="C6">
         <v>169277.62</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>3631.136</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1340,11 +1345,11 @@
       <c r="C7">
         <v>360967.45</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>8657.0079999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1354,11 +1359,11 @@
       <c r="C8">
         <v>52051.56</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>2060.0920000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1368,13 +1373,13 @@
       <c r="C9">
         <v>269240.53999999998</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>9176.5460000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>2022</v>
@@ -1382,13 +1387,13 @@
       <c r="C10">
         <v>60336.51</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>1494.6210000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>2022</v>
@@ -1396,11 +1401,11 @@
       <c r="C11">
         <v>199912.83</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>2179.8200000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1410,11 +1415,11 @@
       <c r="C12">
         <v>2050472.97</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>10679.950999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1424,11 +1429,11 @@
       <c r="C13">
         <v>1669421.49</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>49405.807999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1438,13 +1443,13 @@
       <c r="C14">
         <v>1102473.58</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>37032.410000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="B15">
         <v>2022</v>
@@ -1452,11 +1457,11 @@
       <c r="C15">
         <v>118625.54</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>3761.87</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1466,11 +1471,11 @@
       <c r="C16">
         <v>1844808.68</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>41149.974000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1480,11 +1485,11 @@
       <c r="C17">
         <v>507425.74</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>12251.985000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1494,11 +1499,11 @@
       <c r="C18">
         <v>159447.66</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>4415.0640000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1508,11 +1513,11 @@
       <c r="C19">
         <v>103906.22</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>5473.6710000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1522,11 +1527,11 @@
       <c r="C20">
         <v>75234.570000000007</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>5466.2849999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1536,11 +1541,11 @@
       <c r="C21">
         <v>154980.81</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>5541.3760000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1550,11 +1555,11 @@
       <c r="C22">
         <v>113611.53</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>2741.0749999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1564,11 +1569,11 @@
       <c r="C23">
         <v>149226.1</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>4182.08</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1578,11 +1583,11 @@
       <c r="C24">
         <v>537630.01</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>3859.7829999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1592,11 +1597,11 @@
       <c r="C25">
         <v>69816.759999999995</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>727.755</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1606,11 +1611,11 @@
       <c r="C26">
         <v>102070.48</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>2659.5430000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1620,11 +1625,11 @@
       <c r="C27">
         <v>193181.36</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>3066.143</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1634,11 +1639,11 @@
       <c r="C28">
         <v>377207.78</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>9225.7469999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1648,11 +1653,11 @@
       <c r="C29">
         <v>108152.98</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>2701.6610000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1662,11 +1667,11 @@
       <c r="C30">
         <v>31643.79</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>1192.7370000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1676,11 +1681,11 @@
       <c r="C31">
         <v>35402.559999999998</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>1458.606</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1690,11 +1695,11 @@
       <c r="C32">
         <v>35322.9</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>1881.7270000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1704,11 +1709,11 @@
       <c r="C33">
         <v>48494.74</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>1319.338</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1718,22 +1723,22 @@
       <c r="C34">
         <v>64975.02</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>1183.307</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35">
         <v>2022</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1743,44 +1748,44 @@
       <c r="C36">
         <v>181926.55</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>4418.5810000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37">
         <v>2022</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38">
         <v>2022</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1790,11 +1795,11 @@
       <c r="C40">
         <v>153780.44</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -1808,7 +1813,7 @@
         <v>15386.6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -1822,7 +1827,7 @@
         <v>5757.2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1836,7 +1841,7 @@
         <v>6642.9</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1850,7 +1855,7 @@
         <v>3679.2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -1864,7 +1869,7 @@
         <v>8743.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1878,7 +1883,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1892,7 +1897,7 @@
         <v>9314</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -1906,7 +1911,7 @@
         <v>1511.9</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -1920,7 +1925,7 @@
         <v>2152.6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -1934,7 +1939,7 @@
         <v>10672.1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -1948,7 +1953,7 @@
         <v>49860.3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -1962,9 +1967,9 @@
         <v>37541</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="B53">
         <v>2023</v>
@@ -1976,7 +1981,7 @@
         <v>3736.5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -1990,7 +1995,7 @@
         <v>41527.9</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -2004,7 +2009,7 @@
         <v>12307.7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -2018,7 +2023,7 @@
         <v>4404.3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -2032,7 +2037,7 @@
         <v>5560.3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -2046,7 +2051,7 @@
         <v>5569.1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -2060,7 +2065,7 @@
         <v>5623.3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -2074,7 +2079,7 @@
         <v>2773.7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -2088,7 +2093,7 @@
         <v>4222.3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -2102,7 +2107,7 @@
         <v>3909.7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>23</v>
       </c>
@@ -2116,7 +2121,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>24</v>
       </c>
@@ -2130,7 +2135,7 @@
         <v>2681.5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>25</v>
       </c>
@@ -2144,7 +2149,7 @@
         <v>3086.8</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>26</v>
       </c>
@@ -2158,7 +2163,7 @@
         <v>9362.2999999999993</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>27</v>
       </c>
@@ -2172,7 +2177,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -2186,7 +2191,7 @@
         <v>1213.2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>29</v>
       </c>
@@ -2200,7 +2205,7 @@
         <v>1481.1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>30</v>
       </c>
@@ -2214,7 +2219,7 @@
         <v>1920.5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>31</v>
       </c>
@@ -2228,7 +2233,7 @@
         <v>1337.1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>32</v>
       </c>
@@ -2242,7 +2247,7 @@
         <v>569.6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>33</v>
       </c>
@@ -2256,7 +2261,7 @@
         <v>617.70000000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -2270,7 +2275,7 @@
         <v>1047.0999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>35</v>
       </c>
@@ -2284,7 +2289,7 @@
         <v>534.4</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -2298,7 +2303,7 @@
         <v>1452.8</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>37</v>
       </c>
@@ -2318,757 +2323,2358 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEAD27A5-01B3-49C4-B79F-04D9593F669D}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40:A77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2022</v>
+      </c>
+      <c r="C2">
+        <v>146932.42000000001</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5407.8549999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2022</v>
+      </c>
+      <c r="C3">
+        <v>602235.94999999995</v>
+      </c>
+      <c r="D3" s="3">
+        <v>15115.206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2022</v>
+      </c>
+      <c r="C4">
+        <v>191070.55</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5640.6289999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2022</v>
+      </c>
+      <c r="C5">
+        <v>551828.49</v>
+      </c>
+      <c r="D5" s="3">
+        <v>6614.384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2022</v>
+      </c>
+      <c r="C6">
+        <v>169277.62</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3631.136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2022</v>
+      </c>
+      <c r="C7">
+        <v>360967.45</v>
+      </c>
+      <c r="D7" s="3">
+        <v>8657.0079999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2022</v>
+      </c>
+      <c r="C8">
+        <v>52051.56</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2060.0920000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2022</v>
+      </c>
+      <c r="C9">
+        <v>269240.53999999998</v>
+      </c>
+      <c r="D9" s="3">
+        <v>9176.5460000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2022</v>
+      </c>
+      <c r="C10">
+        <v>60336.51</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1494.6210000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2022</v>
+      </c>
+      <c r="C11">
+        <v>199912.83</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2179.8200000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2022</v>
+      </c>
+      <c r="C12">
+        <v>2050472.97</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10679.950999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2022</v>
+      </c>
+      <c r="C13">
+        <v>1669421.49</v>
+      </c>
+      <c r="D13" s="3">
+        <v>49405.807999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2022</v>
+      </c>
+      <c r="C14">
+        <v>1102473.58</v>
+      </c>
+      <c r="D14" s="3">
+        <v>37032.410000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15">
+        <v>2022</v>
+      </c>
+      <c r="C15">
+        <v>118625.54</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3761.87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2022</v>
+      </c>
+      <c r="C16">
+        <v>1844808.68</v>
+      </c>
+      <c r="D16" s="3">
+        <v>41149.974000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>2022</v>
+      </c>
+      <c r="C17">
+        <v>507425.74</v>
+      </c>
+      <c r="D17" s="3">
+        <v>12251.985000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>2022</v>
+      </c>
+      <c r="C18">
+        <v>159447.66</v>
+      </c>
+      <c r="D18" s="3">
+        <v>4415.0640000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2022</v>
+      </c>
+      <c r="C19">
+        <v>103906.22</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5473.6710000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>2022</v>
+      </c>
+      <c r="C20">
+        <v>75234.570000000007</v>
+      </c>
+      <c r="D20" s="3">
+        <v>5466.2849999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>2022</v>
+      </c>
+      <c r="C21">
+        <v>154980.81</v>
+      </c>
+      <c r="D21" s="3">
+        <v>5541.3760000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>2022</v>
+      </c>
+      <c r="C22">
+        <v>113611.53</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2741.0749999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>2022</v>
+      </c>
+      <c r="C23">
+        <v>149226.1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>4182.08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>2022</v>
+      </c>
+      <c r="C24">
+        <v>537630.01</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3859.7829999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>2022</v>
+      </c>
+      <c r="C25">
+        <v>69816.759999999995</v>
+      </c>
+      <c r="D25" s="3">
+        <v>727.755</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>2022</v>
+      </c>
+      <c r="C26">
+        <v>102070.48</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2659.5430000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>2022</v>
+      </c>
+      <c r="C27">
+        <v>193181.36</v>
+      </c>
+      <c r="D27" s="3">
+        <v>3066.143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>2022</v>
+      </c>
+      <c r="C28">
+        <v>377207.78</v>
+      </c>
+      <c r="D28" s="3">
+        <v>9225.7469999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>2022</v>
+      </c>
+      <c r="C29">
+        <v>108152.98</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2701.6610000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>2022</v>
+      </c>
+      <c r="C30">
+        <v>31643.79</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1192.7370000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>2022</v>
+      </c>
+      <c r="C31">
+        <v>35402.559999999998</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1458.606</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>2022</v>
+      </c>
+      <c r="C32">
+        <v>35322.9</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1881.7270000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>2022</v>
+      </c>
+      <c r="C33">
+        <v>48494.74</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1319.338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>2022</v>
+      </c>
+      <c r="C34">
+        <v>64975.02</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1183.307</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>2022</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>2022</v>
+      </c>
+      <c r="C36">
+        <v>181926.55</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4418.5810000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>2022</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>2022</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>2022</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>2023</v>
+      </c>
+      <c r="C40">
+        <v>153780.44</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41">
+        <v>2023</v>
+      </c>
+      <c r="C41">
+        <v>168186.03</v>
+      </c>
+      <c r="D41">
+        <v>4404.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>2023</v>
+      </c>
+      <c r="C42">
+        <v>60802.64</v>
+      </c>
+      <c r="D42">
+        <v>1511.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43">
+        <v>2023</v>
+      </c>
+      <c r="C43">
+        <v>531735.25</v>
+      </c>
+      <c r="D43">
+        <v>12307.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>2023</v>
+      </c>
+      <c r="C44">
+        <v>54454.65</v>
+      </c>
+      <c r="D44">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45">
+        <v>2023</v>
+      </c>
+      <c r="C45">
+        <v>124590.45</v>
+      </c>
+      <c r="D45">
+        <v>3736.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>2151041.33</v>
+      </c>
+      <c r="D46">
+        <v>10672.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47">
+        <v>2023</v>
+      </c>
+      <c r="C47">
+        <v>32949.620000000003</v>
+      </c>
+      <c r="D47">
+        <v>1213.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>2023</v>
+      </c>
+      <c r="C48">
+        <v>176906.5</v>
+      </c>
+      <c r="D48">
+        <v>3679.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49">
+        <v>2023</v>
+      </c>
+      <c r="C49">
+        <v>1752071.2</v>
+      </c>
+      <c r="D49">
+        <v>49860.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50">
+        <v>2023</v>
+      </c>
+      <c r="C50">
+        <v>1157025.94</v>
+      </c>
+      <c r="D50">
+        <v>37541</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <v>2023</v>
+      </c>
+      <c r="C51">
+        <v>1935810.15</v>
+      </c>
+      <c r="D51">
+        <v>41527.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52">
+        <v>2023</v>
+      </c>
+      <c r="C52">
+        <v>162574.47</v>
+      </c>
+      <c r="D52">
+        <v>5623.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53">
+        <v>2023</v>
+      </c>
+      <c r="C53">
+        <v>156756.94</v>
+      </c>
+      <c r="D53">
+        <v>4222.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54">
+        <v>2023</v>
+      </c>
+      <c r="C54">
+        <v>118682.32</v>
+      </c>
+      <c r="D54">
+        <v>2773.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55">
+        <v>2023</v>
+      </c>
+      <c r="C55">
+        <v>570824.01</v>
+      </c>
+      <c r="D55">
+        <v>3909.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56">
+        <v>2023</v>
+      </c>
+      <c r="C56">
+        <v>73007.990000000005</v>
+      </c>
+      <c r="D56">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57">
+        <v>2023</v>
+      </c>
+      <c r="C57">
+        <v>209939.07</v>
+      </c>
+      <c r="D57">
+        <v>2152.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58">
+        <v>2023</v>
+      </c>
+      <c r="C58">
+        <v>281557.2</v>
+      </c>
+      <c r="D58">
+        <v>9314</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59">
+        <v>2023</v>
+      </c>
+      <c r="C59">
+        <v>37209.360000000001</v>
+      </c>
+      <c r="D59">
+        <v>1920.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60">
+        <v>2023</v>
+      </c>
+      <c r="C60">
+        <v>55152.33</v>
+      </c>
+      <c r="D60">
+        <v>1337.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61">
+        <v>2023</v>
+      </c>
+      <c r="C61">
+        <v>109414.97</v>
+      </c>
+      <c r="D61">
+        <v>5560.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62">
+        <v>2023</v>
+      </c>
+      <c r="C62">
+        <v>78044.570000000007</v>
+      </c>
+      <c r="D62">
+        <v>5569.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63">
+        <v>2023</v>
+      </c>
+      <c r="C63">
+        <v>51587.16</v>
+      </c>
+      <c r="D63">
+        <v>1047.0999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64">
+        <v>2023</v>
+      </c>
+      <c r="C64">
+        <v>49486.23</v>
+      </c>
+      <c r="D64">
+        <v>569.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65">
+        <v>2023</v>
+      </c>
+      <c r="C65">
+        <v>24873.72</v>
+      </c>
+      <c r="D65">
+        <v>617.70000000000005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66">
+        <v>2023</v>
+      </c>
+      <c r="C66">
+        <v>13798.74</v>
+      </c>
+      <c r="D66">
+        <v>1448.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67">
+        <v>2023</v>
+      </c>
+      <c r="C67">
+        <v>18963.849999999999</v>
+      </c>
+      <c r="D67">
+        <v>534.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68">
+        <v>2023</v>
+      </c>
+      <c r="C68">
+        <v>105471.48</v>
+      </c>
+      <c r="D68">
+        <v>1452.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69">
+        <v>2023</v>
+      </c>
+      <c r="C69">
+        <v>571233.59</v>
+      </c>
+      <c r="D69">
+        <v>6642.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70">
+        <v>2023</v>
+      </c>
+      <c r="C70">
+        <v>37088.07</v>
+      </c>
+      <c r="D70">
+        <v>1481.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71">
+        <v>2023</v>
+      </c>
+      <c r="C71">
+        <v>396141.74</v>
+      </c>
+      <c r="D71">
+        <v>9362.2999999999993</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72">
+        <v>2023</v>
+      </c>
+      <c r="C72">
+        <v>212281.54</v>
+      </c>
+      <c r="D72">
+        <v>3086.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73">
+        <v>2023</v>
+      </c>
+      <c r="C73">
+        <v>113989.49</v>
+      </c>
+      <c r="D73">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74">
+        <v>2023</v>
+      </c>
+      <c r="C74">
+        <v>107575.01</v>
+      </c>
+      <c r="D74">
+        <v>2681.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75">
+        <v>2023</v>
+      </c>
+      <c r="C75">
+        <v>199407.38</v>
+      </c>
+      <c r="D75">
+        <v>5757.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76">
+        <v>2023</v>
+      </c>
+      <c r="C76">
+        <v>379119.63</v>
+      </c>
+      <c r="D76">
+        <v>8743.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>2023</v>
+      </c>
+      <c r="C77">
+        <v>632534.73</v>
+      </c>
+      <c r="D77">
+        <v>15386.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D77" xr:uid="{CEAD27A5-01B3-49C4-B79F-04D9593F669D}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="2023"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A40:D77">
+      <sortCondition ref="A1:A77"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD4AA3F-5A4C-4E44-834E-26A0D664FFF0}">
+  <dimension ref="A1:B76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A34">
+    <sortCondition ref="A1:A34"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D367CAA-42AE-43A3-A756-458F58DE7C0C}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="5"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1">
         <v>2022</v>
       </c>
       <c r="C1">
         <v>2023</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>5407.8549999999996</v>
       </c>
       <c r="C2">
         <v>5482.5</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <f>C2-B2</f>
         <v>74.645000000000437</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <f>(C2-B2) / B2</f>
         <v>1.3803069793846256E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>15115.206</v>
       </c>
       <c r="C3">
         <v>15386.6</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <f t="shared" ref="D3:D39" si="0">C3-B3</f>
         <v>271.39400000000023</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <f t="shared" ref="E3:E39" si="1">(C3-B3) / B3</f>
         <v>1.7955031509329096E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>5640.6289999999999</v>
       </c>
       <c r="C4">
         <v>5757.2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <f t="shared" si="0"/>
         <v>116.57099999999991</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <f t="shared" si="1"/>
         <v>2.06663122144711E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>6614.384</v>
       </c>
       <c r="C5">
         <v>6642.9</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <f t="shared" si="0"/>
         <v>28.515999999999622</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <f t="shared" si="1"/>
         <v>4.3112102351480688E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>3631.136</v>
       </c>
       <c r="C6">
         <v>3679.2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>48.063999999999851</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <f t="shared" si="1"/>
         <v>1.3236628977818471E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>8657.0079999999998</v>
       </c>
       <c r="C7">
         <v>8743.5</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>86.492000000000189</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <f t="shared" si="1"/>
         <v>9.9909807175874374E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>2060.0920000000001</v>
       </c>
       <c r="C8">
         <v>2086</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>25.907999999999902</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <f t="shared" si="1"/>
         <v>1.2576137376388968E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>9176.5460000000003</v>
       </c>
       <c r="C9">
         <v>9314</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>137.45399999999972</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <f t="shared" si="1"/>
         <v>1.4978838443135328E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>1494.6210000000001</v>
       </c>
       <c r="C10">
         <v>1511.9</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>17.278999999999996</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <f t="shared" si="1"/>
         <v>1.1560790327447557E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>2179.8200000000002</v>
       </c>
       <c r="C11">
         <v>2152.6</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <f t="shared" si="0"/>
         <v>-27.220000000000255</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <f t="shared" si="1"/>
         <v>-1.2487269591067269E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>10679.950999999999</v>
       </c>
       <c r="C12">
         <v>10672.1</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <f t="shared" si="0"/>
         <v>-7.8509999999987485</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <f t="shared" si="1"/>
         <v>-7.3511573227243729E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>49405.807999999997</v>
       </c>
       <c r="C13">
         <v>49860.3</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <f t="shared" si="0"/>
         <v>454.49200000000565</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <f t="shared" si="1"/>
         <v>9.19916136175742E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>37032.410000000003</v>
       </c>
       <c r="C14">
         <v>37541</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <f t="shared" si="0"/>
         <v>508.58999999999651</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <f t="shared" si="1"/>
         <v>1.3733645744362748E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>3761.87</v>
       </c>
       <c r="C15">
         <v>3736.5</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <f t="shared" si="0"/>
         <v>-25.369999999999891</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <f t="shared" si="1"/>
         <v>-6.7439863684816042E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>41149.974000000002</v>
       </c>
       <c r="C16">
         <v>41527.9</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <f t="shared" si="0"/>
         <v>377.92599999999948</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <f t="shared" si="1"/>
         <v>9.1841127287224881E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>12251.985000000001</v>
       </c>
       <c r="C17">
         <v>12307.7</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <f t="shared" si="0"/>
         <v>55.715000000000146</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <f t="shared" si="1"/>
         <v>4.5474263966206411E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>4415.0640000000003</v>
       </c>
       <c r="C18">
         <v>4404.3</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <f t="shared" si="0"/>
         <v>-10.764000000000124</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <f t="shared" si="1"/>
         <v>-2.4380167535510522E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>5473.6710000000003</v>
       </c>
       <c r="C19">
         <v>5560.3</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <f t="shared" si="0"/>
         <v>86.628999999999905</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <f t="shared" si="1"/>
         <v>1.5826490119702098E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>5466.2849999999999</v>
       </c>
       <c r="C20">
         <v>5569.1</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <f t="shared" si="0"/>
         <v>102.81500000000051</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <f t="shared" si="1"/>
         <v>1.880893513602026E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>5541.3760000000002</v>
       </c>
       <c r="C21">
         <v>5623.3</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <f t="shared" si="0"/>
         <v>81.923999999999978</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <f t="shared" si="1"/>
         <v>1.4784053635775658E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>2741.0749999999998</v>
       </c>
       <c r="C22">
         <v>2773.7</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <f t="shared" si="0"/>
         <v>32.625</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <f t="shared" si="1"/>
         <v>1.190226462245652E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>4182.08</v>
       </c>
       <c r="C23">
         <v>4222.3</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <f t="shared" si="0"/>
         <v>40.220000000000255</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <f t="shared" si="1"/>
         <v>9.6172239651083329E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>3859.7829999999999</v>
       </c>
       <c r="C24">
         <v>3909.7</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <f t="shared" si="0"/>
         <v>49.916999999999916</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <f t="shared" si="1"/>
         <v>1.293259232449076E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>727.755</v>
       </c>
       <c r="C25">
         <v>730</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <f t="shared" si="0"/>
         <v>2.2450000000000045</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <f t="shared" si="1"/>
         <v>3.0848293725223522E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>2659.5430000000001</v>
       </c>
       <c r="C26">
         <v>2681.5</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <f t="shared" si="0"/>
         <v>21.95699999999988</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <f t="shared" si="1"/>
         <v>8.2559296841599773E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>3066.143</v>
       </c>
       <c r="C27">
         <v>3086.8</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <f t="shared" si="0"/>
         <v>20.657000000000153</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <f t="shared" si="1"/>
         <v>6.7371286988245991E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>9225.7469999999994</v>
       </c>
       <c r="C28">
         <v>9362.2999999999993</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <f t="shared" si="0"/>
         <v>136.55299999999988</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <f t="shared" si="1"/>
         <v>1.4801294681070259E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>2701.6610000000001</v>
       </c>
       <c r="C29">
         <v>2749</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <f t="shared" si="0"/>
         <v>47.338999999999942</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <f t="shared" si="1"/>
         <v>1.7522183575215372E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>1192.7370000000001</v>
       </c>
       <c r="C30">
         <v>1213.2</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <f t="shared" si="0"/>
         <v>20.462999999999965</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <f t="shared" si="1"/>
         <v>1.7156338740225183E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>1458.606</v>
       </c>
       <c r="C31">
         <v>1481.1</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <f t="shared" si="0"/>
         <v>22.493999999999915</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <f t="shared" si="1"/>
         <v>1.542157374918238E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>1881.7270000000001</v>
       </c>
       <c r="C32">
         <v>1920.5</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <f t="shared" si="0"/>
         <v>38.772999999999911</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <f t="shared" si="1"/>
         <v>2.0605008059086098E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>1319.338</v>
       </c>
       <c r="C33">
         <v>1337.1</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <f t="shared" si="0"/>
         <v>17.761999999999944</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="4">
         <f t="shared" si="1"/>
         <v>1.3462812410466419E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>1183.307</v>
       </c>
       <c r="C34">
         <v>569.6</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <f t="shared" si="0"/>
         <v>-613.70699999999999</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <f t="shared" si="1"/>
         <v>-0.51863717530615472</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>0</v>
       </c>
       <c r="C35">
         <v>617.70000000000005</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <f t="shared" si="0"/>
         <v>617.70000000000005</v>
       </c>
-      <c r="E35" s="5" t="e">
+      <c r="E35" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>4418.5810000000001</v>
       </c>
       <c r="C36">
         <v>1047.0999999999999</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="6">
         <f t="shared" si="0"/>
         <v>-3371.4810000000002</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <f t="shared" si="1"/>
         <v>-0.76302346839403878</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>0</v>
       </c>
       <c r="C37">
         <v>534.4</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <f t="shared" si="0"/>
         <v>534.4</v>
       </c>
-      <c r="E37" s="5" t="e">
+      <c r="E37" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>0</v>
       </c>
       <c r="C38">
         <v>1452.8</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <f t="shared" si="0"/>
         <v>1452.8</v>
       </c>
-      <c r="E38" s="5" t="e">
+      <c r="E38" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>0</v>
       </c>
       <c r="C39">
         <v>1448.4</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <f t="shared" si="0"/>
         <v>1448.4</v>
       </c>
-      <c r="E39" s="5" t="e">
+      <c r="E39" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3083,24 +4689,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A076D025-AEEE-4826-A0B4-9497AE31ACB0}">
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -3123,944 +4729,943 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>108</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s">
         <v>120</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>124</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" t="s">
         <v>125</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>128</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>129</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>130</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" t="s">
         <v>131</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" t="s">
         <v>132</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>136</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" t="s">
         <v>137</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>139</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" t="s">
         <v>142</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" t="s">
         <v>143</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>147</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" t="s">
         <v>148</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" t="s">
         <v>149</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>151</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>152</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" t="s">
         <v>154</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>158</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" t="s">
         <v>159</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>161</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>162</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" t="s">
         <v>163</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" t="s">
         <v>164</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" t="s">
         <v>165</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>167</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>168</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" t="s">
         <v>169</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" t="s">
         <v>170</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>172</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" t="s">
         <v>173</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" t="s">
         <v>174</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" t="s">
         <v>70</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>175</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
         <v>176</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" t="s">
         <v>177</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" t="s">
         <v>178</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" t="s">
         <v>76</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s">
         <v>180</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" t="s">
         <v>181</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" t="s">
         <v>133</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" t="s">
         <v>182</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>183</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
         <v>184</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" t="s">
         <v>185</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" t="s">
         <v>186</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" t="s">
         <v>85</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>188</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s">
         <v>189</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" t="s">
         <v>190</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" t="s">
         <v>191</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" t="s">
         <v>192</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>193</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>194</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" t="s">
         <v>195</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" t="s">
         <v>196</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>198</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s">
         <v>199</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" t="s">
         <v>200</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" t="s">
         <v>108</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" t="s">
         <v>108</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s">
         <v>202</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" t="s">
         <v>203</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" t="s">
         <v>132</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" t="s">
         <v>97</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>204</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" t="s">
         <v>205</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" t="s">
         <v>206</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" t="s">
         <v>207</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" t="s">
         <v>208</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>210</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
         <v>211</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" t="s">
         <v>212</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" t="s">
         <v>155</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" t="s">
         <v>213</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>215</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" t="s">
         <v>216</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" t="s">
         <v>217</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" t="s">
         <v>218</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" t="s">
         <v>68</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>219</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" t="s">
         <v>220</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" t="s">
         <v>221</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" t="s">
         <v>222</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
         <v>223</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" t="s">
         <v>224</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" t="s">
         <v>225</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" t="s">
         <v>226</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" t="s">
         <v>227</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
         <v>229</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" t="s">
         <v>230</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" t="s">
         <v>231</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" t="s">
         <v>232</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" t="s">
         <v>233</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>235</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" t="s">
         <v>236</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" t="s">
         <v>237</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" t="s">
         <v>235</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" t="s">
         <v>238</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
         <v>240</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" t="s">
         <v>241</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" t="s">
         <v>242</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" t="s">
         <v>243</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" t="s">
         <v>244</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
         <v>235</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" t="s">
         <v>246</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" t="s">
         <v>247</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" t="s">
         <v>235</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" t="s">
         <v>248</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
         <v>235</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" t="s">
         <v>249</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" t="s">
         <v>250</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" t="s">
         <v>235</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" t="s">
         <v>239</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" t="s">
         <v>235</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" t="s">
         <v>252</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" t="s">
         <v>253</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" t="s">
         <v>235</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" t="s">
         <v>254</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>256</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" t="s">
         <v>257</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" t="s">
         <v>258</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" t="s">
         <v>259</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" t="s">
         <v>95</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" t="s">
         <v>133</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" t="s">
         <v>131</v>
       </c>
     </row>

--- a/macro.xlsx
+++ b/macro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\ufm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBD0633-8B0C-4C24-8552-EEDDE159421F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D984F78-E80F-449C-9D51-BB0746673381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11466" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gp" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="264">
   <si>
     <t>Aceh</t>
   </si>
@@ -842,6 +842,9 @@
   </si>
   <si>
     <t>Daerah Istimewa Yogyakarta</t>
+  </si>
+  <si>
+    <t>budget</t>
   </si>
 </sst>
 </file>
@@ -1238,20 +1241,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.234375" customWidth="1"/>
+    <col min="4" max="4" width="19.41015625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.76171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1264,8 +1268,11 @@
       <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1278,8 +1285,11 @@
       <c r="D2" s="3">
         <v>5407.8549999999996</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>16170650661.277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1292,8 +1302,11 @@
       <c r="D3" s="3">
         <v>15115.206</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>12649625563.716</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1306,8 +1319,11 @@
       <c r="D4" s="3">
         <v>5640.6289999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>6204281123.9510002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1320,8 +1336,11 @@
       <c r="D5" s="3">
         <v>6614.384</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>8656846387.8570004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1334,8 +1353,11 @@
       <c r="D6" s="3">
         <v>3631.136</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>4795846912.1070004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1348,8 +1370,11 @@
       <c r="D7" s="3">
         <v>8657.0079999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>9766471031.4580002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1362,8 +1387,11 @@
       <c r="D8" s="3">
         <v>2060.0920000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>2838779834.2309999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1376,8 +1404,11 @@
       <c r="D9" s="3">
         <v>9176.5460000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>7011699025.9329996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1390,8 +1421,11 @@
       <c r="D10" s="3">
         <v>1494.6210000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>2079664741.7739999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1404,8 +1438,11 @@
       <c r="D11" s="3">
         <v>2179.8200000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>3870323080.5089998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1418,8 +1455,11 @@
       <c r="D12" s="3">
         <v>10679.950999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>76840307101.755005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1432,8 +1472,11 @@
       <c r="D13" s="3">
         <v>49405.807999999997</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>31525699942.652</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1446,8 +1489,11 @@
       <c r="D14" s="3">
         <v>37032.410000000003</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>24589868689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>262</v>
       </c>
@@ -1460,8 +1506,11 @@
       <c r="D15" s="3">
         <v>3761.87</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>5761351132.1969995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1474,8 +1523,11 @@
       <c r="D16" s="3">
         <v>41149.974000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>29454858347.811001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1488,8 +1540,11 @@
       <c r="D17" s="3">
         <v>12251.985000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>11223180236.231001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1502,8 +1557,11 @@
       <c r="D18" s="3">
         <v>4415.0640000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>6102490842.7620001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1516,8 +1574,11 @@
       <c r="D19" s="3">
         <v>5473.6710000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>5961577280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1530,8 +1591,11 @@
       <c r="D20" s="3">
         <v>5466.2849999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>5486764678.2089996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1608,11 @@
       <c r="D21" s="3">
         <v>5541.3760000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>5684417499.9510002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1558,8 +1625,11 @@
       <c r="D22" s="3">
         <v>2741.0749999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>5191681877.5310001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1572,8 +1642,11 @@
       <c r="D23" s="3">
         <v>4182.08</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>6243838931.96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1586,8 +1659,11 @@
       <c r="D24" s="3">
         <v>3859.7829999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>11501773960.620001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1600,8 +1676,11 @@
       <c r="D25" s="3">
         <v>727.755</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>2404941922.3720002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1614,8 +1693,11 @@
       <c r="D26" s="3">
         <v>2659.5430000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>3817647909.7690001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1628,8 +1710,11 @@
       <c r="D27" s="3">
         <v>3066.143</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>4728758528.7930002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1642,8 +1727,11 @@
       <c r="D28" s="3">
         <v>9225.7469999999994</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>9109282005.4640007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1656,8 +1744,11 @@
       <c r="D29" s="3">
         <v>2701.6610000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>4767316591.184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1670,8 +1761,11 @@
       <c r="D30" s="3">
         <v>1192.7370000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>1739466983.4679999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1684,8 +1778,11 @@
       <c r="D31" s="3">
         <v>1458.606</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>2015662940.595</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1698,8 +1795,11 @@
       <c r="D32" s="3">
         <v>1881.7270000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>3098429817.585</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1712,8 +1812,11 @@
       <c r="D33" s="3">
         <v>1319.338</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>3024282572</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1726,8 +1829,11 @@
       <c r="D34" s="3">
         <v>1183.307</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>6778259711.6350002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1738,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1752,7 +1858,7 @@
         <v>4418.5810000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1763,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1774,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1785,7 +1891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1799,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -1813,7 +1919,7 @@
         <v>15386.6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -1827,7 +1933,7 @@
         <v>5757.2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1841,7 +1947,7 @@
         <v>6642.9</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1855,7 +1961,7 @@
         <v>3679.2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -1869,7 +1975,7 @@
         <v>8743.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1883,7 +1989,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1897,7 +2003,7 @@
         <v>9314</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -1911,7 +2017,7 @@
         <v>1511.9</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -1925,7 +2031,7 @@
         <v>2152.6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -1939,7 +2045,7 @@
         <v>10672.1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -1953,7 +2059,7 @@
         <v>49860.3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -1967,7 +2073,7 @@
         <v>37541</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>262</v>
       </c>
@@ -1981,7 +2087,7 @@
         <v>3736.5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -1995,7 +2101,7 @@
         <v>41527.9</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -2009,7 +2115,7 @@
         <v>12307.7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -2023,7 +2129,7 @@
         <v>4404.3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -2037,7 +2143,7 @@
         <v>5560.3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -2051,7 +2157,7 @@
         <v>5569.1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -2065,7 +2171,7 @@
         <v>5623.3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -2079,7 +2185,7 @@
         <v>2773.7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -2093,7 +2199,7 @@
         <v>4222.3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -2107,7 +2213,7 @@
         <v>3909.7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>23</v>
       </c>
@@ -2121,7 +2227,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>24</v>
       </c>
@@ -2135,7 +2241,7 @@
         <v>2681.5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>25</v>
       </c>
@@ -2149,7 +2255,7 @@
         <v>3086.8</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>26</v>
       </c>
@@ -2163,7 +2269,7 @@
         <v>9362.2999999999993</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>27</v>
       </c>
@@ -2177,7 +2283,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -2191,7 +2297,7 @@
         <v>1213.2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>29</v>
       </c>
@@ -2205,7 +2311,7 @@
         <v>1481.1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>30</v>
       </c>
@@ -2219,7 +2325,7 @@
         <v>1920.5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>31</v>
       </c>
@@ -2233,7 +2339,7 @@
         <v>1337.1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>32</v>
       </c>
@@ -2247,7 +2353,7 @@
         <v>569.6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>33</v>
       </c>
@@ -2261,7 +2367,7 @@
         <v>617.70000000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -2275,7 +2381,7 @@
         <v>1047.0999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
         <v>35</v>
       </c>
@@ -2289,7 +2395,7 @@
         <v>534.4</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -2303,7 +2409,7 @@
         <v>1452.8</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>37</v>
       </c>
@@ -2329,16 +2435,16 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40:A77"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.234375" customWidth="1"/>
+    <col min="4" max="4" width="19.41015625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -2352,7 +2458,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2366,7 +2472,7 @@
         <v>5407.8549999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2380,7 +2486,7 @@
         <v>15115.206</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2394,7 +2500,7 @@
         <v>5640.6289999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2408,7 +2514,7 @@
         <v>6614.384</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2422,7 +2528,7 @@
         <v>3631.136</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2436,7 +2542,7 @@
         <v>8657.0079999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2450,7 +2556,7 @@
         <v>2060.0920000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2464,7 +2570,7 @@
         <v>9176.5460000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2478,7 +2584,7 @@
         <v>1494.6210000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2492,7 +2598,7 @@
         <v>2179.8200000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2506,7 +2612,7 @@
         <v>10679.950999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2520,7 +2626,7 @@
         <v>49405.807999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2534,7 +2640,7 @@
         <v>37032.410000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>262</v>
       </c>
@@ -2548,7 +2654,7 @@
         <v>3761.87</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2562,7 +2668,7 @@
         <v>41149.974000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2576,7 +2682,7 @@
         <v>12251.985000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2590,7 +2696,7 @@
         <v>4415.0640000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2604,7 +2710,7 @@
         <v>5473.6710000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2618,7 +2724,7 @@
         <v>5466.2849999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2632,7 +2738,7 @@
         <v>5541.3760000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2646,7 +2752,7 @@
         <v>2741.0749999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2660,7 +2766,7 @@
         <v>4182.08</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2674,7 +2780,7 @@
         <v>3859.7829999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2688,7 +2794,7 @@
         <v>727.755</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2702,7 +2808,7 @@
         <v>2659.5430000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2716,7 +2822,7 @@
         <v>3066.143</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2730,7 +2836,7 @@
         <v>9225.7469999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2744,7 +2850,7 @@
         <v>2701.6610000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2758,7 +2864,7 @@
         <v>1192.7370000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2772,7 +2878,7 @@
         <v>1458.606</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2786,7 +2892,7 @@
         <v>1881.7270000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2800,7 +2906,7 @@
         <v>1319.338</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2814,7 +2920,7 @@
         <v>1183.307</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2825,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2839,7 +2945,7 @@
         <v>4418.5810000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2850,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2861,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2872,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -2886,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -2900,7 +3006,7 @@
         <v>4404.3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2914,7 +3020,7 @@
         <v>1511.9</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -2928,7 +3034,7 @@
         <v>12307.7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -2942,7 +3048,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -2956,7 +3062,7 @@
         <v>3736.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2970,7 +3076,7 @@
         <v>10672.1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -2984,7 +3090,7 @@
         <v>1213.2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2998,7 +3104,7 @@
         <v>3679.2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -3012,7 +3118,7 @@
         <v>49860.3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -3026,7 +3132,7 @@
         <v>37541</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -3040,7 +3146,7 @@
         <v>41527.9</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -3054,7 +3160,7 @@
         <v>5623.3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -3068,7 +3174,7 @@
         <v>4222.3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -3082,7 +3188,7 @@
         <v>2773.7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>22</v>
       </c>
@@ -3096,7 +3202,7 @@
         <v>3909.7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -3110,7 +3216,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -3124,7 +3230,7 @@
         <v>2152.6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -3138,7 +3244,7 @@
         <v>9314</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -3152,7 +3258,7 @@
         <v>1920.5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -3166,7 +3272,7 @@
         <v>1337.1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -3180,7 +3286,7 @@
         <v>5560.3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -3194,7 +3300,7 @@
         <v>5569.1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>34</v>
       </c>
@@ -3208,7 +3314,7 @@
         <v>1047.0999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>32</v>
       </c>
@@ -3222,7 +3328,7 @@
         <v>569.6</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -3236,7 +3342,7 @@
         <v>617.70000000000005</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>37</v>
       </c>
@@ -3250,7 +3356,7 @@
         <v>1448.4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>35</v>
       </c>
@@ -3264,7 +3370,7 @@
         <v>534.4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>36</v>
       </c>
@@ -3278,7 +3384,7 @@
         <v>1452.8</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -3292,7 +3398,7 @@
         <v>6642.9</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>29</v>
       </c>
@@ -3306,7 +3412,7 @@
         <v>1481.1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>26</v>
       </c>
@@ -3320,7 +3426,7 @@
         <v>9362.2999999999993</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>25</v>
       </c>
@@ -3334,7 +3440,7 @@
         <v>3086.8</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -3348,7 +3454,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -3362,7 +3468,7 @@
         <v>2681.5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -3376,7 +3482,7 @@
         <v>5757.2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -3390,7 +3496,7 @@
         <v>8743.5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -3427,13 +3533,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="27.21875" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" customWidth="1"/>
+    <col min="1" max="1" width="27.234375" customWidth="1"/>
+    <col min="2" max="2" width="34.41015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3441,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3449,7 +3555,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -3457,7 +3563,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -3465,7 +3571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3473,7 +3579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>262</v>
       </c>
@@ -3481,7 +3587,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3489,7 +3595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -3497,7 +3603,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -3505,7 +3611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3513,7 +3619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3521,7 +3627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3529,7 +3635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -3537,7 +3643,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3545,7 +3651,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -3553,7 +3659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -3561,7 +3667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -3569,7 +3675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -3577,7 +3683,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -3585,7 +3691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -3593,7 +3699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -3601,7 +3707,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -3609,7 +3715,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -3617,7 +3723,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3625,7 +3731,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -3633,7 +3739,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -3641,7 +3747,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -3649,7 +3755,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3657,7 +3763,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -3665,7 +3771,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -3673,7 +3779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -3681,7 +3787,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -3689,7 +3795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -3697,7 +3803,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -3705,212 +3811,212 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B39" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B42" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B43" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B44" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B45" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B46" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B47" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B48" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B49" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B50" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B51" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B52" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B53" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B54" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B55" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B56" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B57" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B58" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B59" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B60" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B61" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B62" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B63" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B64" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B65" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B66" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B67" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B68" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B69" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B70" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B71" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B72" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B73" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B74" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B75" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B76" t="s">
         <v>1</v>
       </c>
@@ -3931,16 +4037,16 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="4"/>
+    <col min="1" max="1" width="21.3515625" customWidth="1"/>
+    <col min="2" max="2" width="13.76171875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.76171875" customWidth="1"/>
+    <col min="4" max="4" width="11.76171875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.76171875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -3957,7 +4063,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3976,7 +4082,7 @@
         <v>1.3803069793846256E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3995,7 +4101,7 @@
         <v>1.7955031509329096E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4014,7 +4120,7 @@
         <v>2.06663122144711E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4033,7 +4139,7 @@
         <v>4.3112102351480688E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4052,7 +4158,7 @@
         <v>1.3236628977818471E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4071,7 +4177,7 @@
         <v>9.9909807175874374E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4090,7 +4196,7 @@
         <v>1.2576137376388968E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4109,7 +4215,7 @@
         <v>1.4978838443135328E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4128,7 +4234,7 @@
         <v>1.1560790327447557E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4147,7 +4253,7 @@
         <v>-1.2487269591067269E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4166,7 +4272,7 @@
         <v>-7.3511573227243729E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -4185,7 +4291,7 @@
         <v>9.19916136175742E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -4204,7 +4310,7 @@
         <v>1.3733645744362748E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -4223,7 +4329,7 @@
         <v>-6.7439863684816042E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -4242,7 +4348,7 @@
         <v>9.1841127287224881E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4261,7 +4367,7 @@
         <v>4.5474263966206411E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -4280,7 +4386,7 @@
         <v>-2.4380167535510522E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -4299,7 +4405,7 @@
         <v>1.5826490119702098E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -4318,7 +4424,7 @@
         <v>1.880893513602026E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4337,7 +4443,7 @@
         <v>1.4784053635775658E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -4356,7 +4462,7 @@
         <v>1.190226462245652E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -4375,7 +4481,7 @@
         <v>9.6172239651083329E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -4394,7 +4500,7 @@
         <v>1.293259232449076E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4413,7 +4519,7 @@
         <v>3.0848293725223522E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -4432,7 +4538,7 @@
         <v>8.2559296841599773E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -4451,7 +4557,7 @@
         <v>6.7371286988245991E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4470,7 +4576,7 @@
         <v>1.4801294681070259E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4489,7 +4595,7 @@
         <v>1.7522183575215372E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -4508,7 +4614,7 @@
         <v>1.7156338740225183E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -4527,7 +4633,7 @@
         <v>1.542157374918238E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -4546,7 +4652,7 @@
         <v>2.0605008059086098E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -4565,7 +4671,7 @@
         <v>1.3462812410466419E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -4584,7 +4690,7 @@
         <v>-0.51863717530615472</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -4603,7 +4709,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -4622,7 +4728,7 @@
         <v>-0.76302346839403878</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -4641,7 +4747,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -4660,7 +4766,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -4697,16 +4803,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.52734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.52734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.3515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.52734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -4729,7 +4835,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
         <v>52</v>
       </c>
@@ -4749,7 +4855,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -4772,7 +4878,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4795,7 +4901,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -4818,7 +4924,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -4841,7 +4947,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -4864,7 +4970,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -4887,7 +4993,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -4910,7 +5016,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -4933,7 +5039,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -4956,7 +5062,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -4979,7 +5085,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -5002,7 +5108,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -5025,7 +5131,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -5048,7 +5154,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -5071,7 +5177,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -5094,7 +5200,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -5117,7 +5223,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -5140,7 +5246,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -5163,7 +5269,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -5186,7 +5292,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -5209,7 +5315,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -5232,7 +5338,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -5255,7 +5361,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -5278,7 +5384,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -5301,7 +5407,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -5324,7 +5430,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -5347,7 +5453,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -5370,7 +5476,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -5393,7 +5499,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -5416,7 +5522,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -5439,7 +5545,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -5462,7 +5568,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -5485,7 +5591,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -5508,7 +5614,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -5531,7 +5637,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -5554,7 +5660,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -5577,7 +5683,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -5600,7 +5706,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -5623,7 +5729,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -5646,7 +5752,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>256</v>
       </c>

--- a/macro.xlsx
+++ b/macro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\ufm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D984F78-E80F-449C-9D51-BB0746673381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A1BD24-2ACF-4123-9920-A5DC63E6449D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11466" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="265">
   <si>
     <t>Aceh</t>
   </si>
@@ -845,6 +845,9 @@
   </si>
   <si>
     <t>budget</t>
+  </si>
+  <si>
+    <t>bud</t>
   </si>
 </sst>
 </file>
@@ -1241,11 +1244,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1255,7 +1258,7 @@
     <col min="5" max="5" width="11.76171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1269,10 +1272,13 @@
         <v>43</v>
       </c>
       <c r="E1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1288,8 +1294,12 @@
       <c r="E2">
         <v>16170650661.277</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F2">
+        <f>E2/1000000</f>
+        <v>16170.650661277001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1305,8 +1315,12 @@
       <c r="E3">
         <v>12649625563.716</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">E3/1000000</f>
+        <v>12649.625563715999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1322,8 +1336,12 @@
       <c r="E4">
         <v>6204281123.9510002</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>6204.2811239510002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1339,8 +1357,12 @@
       <c r="E5">
         <v>8656846387.8570004</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>8656.8463878570001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1356,8 +1378,12 @@
       <c r="E6">
         <v>4795846912.1070004</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>4795.8469121070002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1373,8 +1399,12 @@
       <c r="E7">
         <v>9766471031.4580002</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>9766.4710314580007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1390,8 +1420,12 @@
       <c r="E8">
         <v>2838779834.2309999</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2838.7798342309998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1407,8 +1441,12 @@
       <c r="E9">
         <v>7011699025.9329996</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>7011.6990259329996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1424,8 +1462,12 @@
       <c r="E10">
         <v>2079664741.7739999</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>2079.664741774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1441,8 +1483,12 @@
       <c r="E11">
         <v>3870323080.5089998</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>3870.3230805089997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1458,8 +1504,12 @@
       <c r="E12">
         <v>76840307101.755005</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>76840.30710175501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1475,8 +1525,12 @@
       <c r="E13">
         <v>31525699942.652</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>31525.699942652001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1492,8 +1546,12 @@
       <c r="E14">
         <v>24589868689</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>24589.868688999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>262</v>
       </c>
@@ -1509,8 +1567,12 @@
       <c r="E15">
         <v>5761351132.1969995</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>5761.351132197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1526,8 +1588,12 @@
       <c r="E16">
         <v>29454858347.811001</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>29454.858347811001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1543,8 +1609,12 @@
       <c r="E17">
         <v>11223180236.231001</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>11223.180236231001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1560,8 +1630,12 @@
       <c r="E18">
         <v>6102490842.7620001</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>6102.4908427620003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1577,8 +1651,12 @@
       <c r="E19">
         <v>5961577280</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>5961.5772800000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1594,8 +1672,12 @@
       <c r="E20">
         <v>5486764678.2089996</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>5486.7646782089996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1611,8 +1693,12 @@
       <c r="E21">
         <v>5684417499.9510002</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>5684.4174999510005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1628,8 +1714,12 @@
       <c r="E22">
         <v>5191681877.5310001</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>5191.6818775310003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1645,8 +1735,12 @@
       <c r="E23">
         <v>6243838931.96</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>6243.8389319600001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1662,8 +1756,12 @@
       <c r="E24">
         <v>11501773960.620001</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>11501.773960620001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1679,8 +1777,12 @@
       <c r="E25">
         <v>2404941922.3720002</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>2404.9419223720001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1696,8 +1798,12 @@
       <c r="E26">
         <v>3817647909.7690001</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>3817.6479097689999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1713,8 +1819,12 @@
       <c r="E27">
         <v>4728758528.7930002</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>4728.7585287930006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1730,8 +1840,12 @@
       <c r="E28">
         <v>9109282005.4640007</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>9109.2820054640015</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1747,8 +1861,12 @@
       <c r="E29">
         <v>4767316591.184</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>4767.3165911839997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1764,8 +1882,12 @@
       <c r="E30">
         <v>1739466983.4679999</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>1739.4669834679999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1781,8 +1903,12 @@
       <c r="E31">
         <v>2015662940.595</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>2015.662940595</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1798,8 +1924,12 @@
       <c r="E32">
         <v>3098429817.585</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>3098.4298175849999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1815,8 +1945,12 @@
       <c r="E33">
         <v>3024282572</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>3024.2825720000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1832,8 +1966,12 @@
       <c r="E34">
         <v>6778259711.6350002</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>6778.2597116349998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1844,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1857,8 +1995,15 @@
       <c r="D36" s="3">
         <v>4418.5810000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="E36">
+        <v>9821989485.3180008</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>9821.9894853180012</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1869,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1880,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1891,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1904,8 +2049,15 @@
       <c r="D40" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="E40">
+        <v>11093859701</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>11093.859700999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -1918,8 +2070,15 @@
       <c r="D41">
         <v>15386.6</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="E41">
+        <v>14273522513</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>14273.522513</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -1932,8 +2091,15 @@
       <c r="D42">
         <v>5757.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="E42">
+        <v>6789260685</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>6789.2606850000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1946,8 +2112,15 @@
       <c r="D43">
         <v>6642.9</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="E43">
+        <v>10142479987</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>10142.479987000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1960,8 +2133,15 @@
       <c r="D44">
         <v>3679.2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="E44">
+        <v>5501683606</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>5501.6836059999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -1974,8 +2154,15 @@
       <c r="D45">
         <v>8743.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="E45">
+        <v>10511755061</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>10511.755061</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1988,8 +2175,15 @@
       <c r="D46">
         <v>2086</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="E46">
+        <v>2977388139</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>2977.3881390000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -2002,8 +2196,15 @@
       <c r="D47">
         <v>9314</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="E47">
+        <v>7381761190</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>7381.7611900000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -2016,8 +2217,15 @@
       <c r="D48">
         <v>1511.9</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E48">
+        <v>2962293919</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>2962.2939190000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -2030,8 +2238,15 @@
       <c r="D49">
         <v>2152.6</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E49">
+        <v>4151643181</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>4151.6431810000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2044,8 +2259,15 @@
       <c r="D50">
         <v>10672.1</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E50">
+        <v>74613763379</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>74613.763378999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -2058,8 +2280,15 @@
       <c r="D51">
         <v>49860.3</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E51">
+        <v>33931471130</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>33931.471129999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -2072,8 +2301,15 @@
       <c r="D52">
         <v>37541</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E52">
+        <v>26763164318</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>26763.164317999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>262</v>
       </c>
@@ -2086,8 +2322,15 @@
       <c r="D53">
         <v>3736.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E53">
+        <v>6000056739</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>6000.0567389999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -2100,8 +2343,15 @@
       <c r="D54">
         <v>41527.9</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E54">
+        <v>31120677902</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>31120.677901999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -2114,8 +2364,15 @@
       <c r="D55">
         <v>12307.7</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E55">
+        <v>11774651290</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>11774.65129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -2128,8 +2385,15 @@
       <c r="D56">
         <v>4404.3</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E56">
+        <v>7522393049</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>7522.3930490000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -2142,8 +2406,15 @@
       <c r="D57">
         <v>5560.3</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E57">
+        <v>5991980924</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>5991.9809240000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -2156,8 +2427,15 @@
       <c r="D58">
         <v>5569.1</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E58">
+        <v>5111494299</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>5111.494299</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -2170,8 +2448,15 @@
       <c r="D59">
         <v>5623.3</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E59">
+        <v>6280973661</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>6280.973661</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -2184,8 +2469,15 @@
       <c r="D60">
         <v>2773.7</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E60">
+        <v>6784281998</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>6784.2819980000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -2198,8 +2490,15 @@
       <c r="D61">
         <v>4222.3</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E61">
+        <v>8056175554</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>8056.1755540000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -2212,8 +2511,15 @@
       <c r="D62">
         <v>3909.7</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E62">
+        <v>17031194223</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>17031.194222999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>23</v>
       </c>
@@ -2226,8 +2532,15 @@
       <c r="D63">
         <v>730</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E63">
+        <v>2997361702</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>2997.3617020000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>24</v>
       </c>
@@ -2240,8 +2553,15 @@
       <c r="D64">
         <v>2681.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E64">
+        <v>3493333058</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>3493.3330580000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>25</v>
       </c>
@@ -2254,8 +2574,15 @@
       <c r="D65">
         <v>3086.8</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E65">
+        <v>5182880478</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>5182.880478</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>26</v>
       </c>
@@ -2268,8 +2595,15 @@
       <c r="D66">
         <v>9362.2999999999993</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E66">
+        <v>9995582075</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>9995.5820750000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>27</v>
       </c>
@@ -2282,8 +2616,15 @@
       <c r="D67">
         <v>2749</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E67">
+        <v>4912167262</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F77" si="1">E67/1000000</f>
+        <v>4912.1672619999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -2296,8 +2637,15 @@
       <c r="D68">
         <v>1213.2</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E68">
+        <v>1854056190</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>1854.05619</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2658,15 @@
       <c r="D69">
         <v>1481.1</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E69">
+        <v>2081773891</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>2081.7738909999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>30</v>
       </c>
@@ -2324,8 +2679,15 @@
       <c r="D70">
         <v>1920.5</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E70">
+        <v>2983951052</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>2983.9510519999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>31</v>
       </c>
@@ -2338,8 +2700,15 @@
       <c r="D71">
         <v>1337.1</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E71">
+        <v>4242669820</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>4242.6698200000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>32</v>
       </c>
@@ -2352,8 +2721,15 @@
       <c r="D72">
         <v>569.6</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E72">
+        <v>5505620881</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>5505.6208809999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>33</v>
       </c>
@@ -2367,7 +2743,7 @@
         <v>617.70000000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -2380,8 +2756,15 @@
       <c r="D74">
         <v>1047.0999999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E74">
+        <v>3492754005</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>3492.7540049999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
         <v>35</v>
       </c>
@@ -2395,7 +2778,7 @@
         <v>534.4</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -2409,7 +2792,7 @@
         <v>1452.8</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>37</v>
       </c>

--- a/macro.xlsx
+++ b/macro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\ufm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A1BD24-2ACF-4123-9920-A5DC63E6449D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333DB5F1-33CF-438E-9D64-2CE2121D5FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11466" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gp" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="266">
   <si>
     <t>Aceh</t>
   </si>
@@ -848,6 +848,9 @@
   </si>
   <si>
     <t>bud</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1244,21 +1247,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.234375" customWidth="1"/>
-    <col min="4" max="4" width="19.41015625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.76171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1278,7 +1282,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1298,8 +1302,11 @@
         <f>E2/1000000</f>
         <v>16170.650661277001</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G2">
+        <v>16772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1319,8 +1326,11 @@
         <f t="shared" ref="F3:F66" si="0">E3/1000000</f>
         <v>12649.625563715999</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G3">
+        <v>15131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1340,8 +1350,11 @@
         <f t="shared" si="0"/>
         <v>6204.2811239510002</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G4">
+        <v>15887</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1361,8 +1374,11 @@
         <f t="shared" si="0"/>
         <v>8656.8463878570001</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G5">
+        <v>18626</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1382,8 +1398,11 @@
         <f t="shared" si="0"/>
         <v>4795.8469121070002</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G6">
+        <v>16042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1403,8 +1422,11 @@
         <f t="shared" si="0"/>
         <v>9766.4710314580007</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G7">
+        <v>15978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1424,8 +1446,11 @@
         <f t="shared" si="0"/>
         <v>2838.7798342309998</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G8">
+        <v>16501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1445,8 +1470,11 @@
         <f t="shared" si="0"/>
         <v>7011.6990259329996</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G9">
+        <v>13218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1466,8 +1494,11 @@
         <f t="shared" si="0"/>
         <v>2079.664741774</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G10">
+        <v>18132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1487,8 +1518,11 @@
         <f t="shared" si="0"/>
         <v>3870.3230805089997</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G11">
+        <v>23528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1508,8 +1542,11 @@
         <f t="shared" si="0"/>
         <v>76840.30710175501</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G12">
+        <v>32685</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1529,8 +1566,11 @@
         <f t="shared" si="0"/>
         <v>31525.699942652001</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G13">
+        <v>19038</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1550,8 +1590,11 @@
         <f t="shared" si="0"/>
         <v>24589.868688999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G14">
+        <v>12604</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>262</v>
       </c>
@@ -1571,8 +1614,11 @@
         <f t="shared" si="0"/>
         <v>5761.351132197</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G15">
+        <v>14916</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1592,8 +1638,11 @@
         <f t="shared" si="0"/>
         <v>29454.858347811001</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G16">
+        <v>15119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1613,8 +1662,11 @@
         <f t="shared" si="0"/>
         <v>11223.180236231001</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G17">
+        <v>23880</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1634,8 +1686,11 @@
         <f t="shared" si="0"/>
         <v>6102.4908427620003</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G18">
+        <v>16857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1655,8 +1710,11 @@
         <f t="shared" si="0"/>
         <v>5961.5772800000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G19">
+        <v>11734</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1676,8 +1734,11 @@
         <f t="shared" si="0"/>
         <v>5486.7646782089996</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G20">
+        <v>13012</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1697,8 +1758,11 @@
         <f t="shared" si="0"/>
         <v>5684.4174999510005</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G21">
+        <v>16337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1718,8 +1782,11 @@
         <f t="shared" si="0"/>
         <v>5191.6818775310003</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G22">
+        <v>19795</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1739,8 +1806,11 @@
         <f t="shared" si="0"/>
         <v>6243.8389319600001</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G23">
+        <v>18661</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1760,8 +1830,11 @@
         <f t="shared" si="0"/>
         <v>11501.773960620001</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G24">
+        <v>22281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1781,8 +1854,11 @@
         <f t="shared" si="0"/>
         <v>2404.9419223720001</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G25">
+        <v>20320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1802,8 +1878,11 @@
         <f t="shared" si="0"/>
         <v>3817.6479097689999</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G26">
+        <v>18335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1823,8 +1902,11 @@
         <f t="shared" si="0"/>
         <v>4728.7585287930006</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G27">
+        <v>15890</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1844,8 +1926,11 @@
         <f t="shared" si="0"/>
         <v>9109.2820054640015</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G28">
+        <v>17257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1865,8 +1950,11 @@
         <f t="shared" si="0"/>
         <v>4767.3165911839997</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G29">
+        <v>17542</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1886,8 +1974,11 @@
         <f t="shared" si="0"/>
         <v>1739.4669834679999</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G30">
+        <v>14289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1907,8 +1998,11 @@
         <f t="shared" si="0"/>
         <v>2015.662940595</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G31">
+        <v>14774</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1928,8 +2022,11 @@
         <f t="shared" si="0"/>
         <v>3098.4298175849999</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G32">
+        <v>17006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1949,8 +2046,11 @@
         <f t="shared" si="0"/>
         <v>3024.2825720000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G33">
+        <v>18278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1970,8 +2070,11 @@
         <f t="shared" si="0"/>
         <v>6778.2597116349998</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G34">
+        <v>24128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1981,8 +2084,11 @@
       <c r="D35" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G35" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2002,8 +2108,11 @@
         <f t="shared" si="0"/>
         <v>9821.9894853180012</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G36">
+        <v>24097</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2013,8 +2122,11 @@
       <c r="D37" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G37" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2024,8 +2136,11 @@
       <c r="D38" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G38" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2035,8 +2150,11 @@
       <c r="D39" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G39" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -2056,8 +2174,11 @@
         <f t="shared" si="0"/>
         <v>11093.859700999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G40">
+        <v>17585</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -2077,8 +2198,11 @@
         <f t="shared" si="0"/>
         <v>14273.522513</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G41">
+        <v>17609</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -2098,8 +2222,11 @@
         <f t="shared" si="0"/>
         <v>6789.2606850000002</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G42">
+        <v>16694</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -2119,8 +2246,11 @@
         <f t="shared" si="0"/>
         <v>10142.479987000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G43">
+        <v>18413</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -2140,8 +2270,11 @@
         <f t="shared" si="0"/>
         <v>5501.6836059999996</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G44">
+        <v>17596</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -2161,8 +2294,11 @@
         <f t="shared" si="0"/>
         <v>10511.755061</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G45">
+        <v>16273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -2182,8 +2318,11 @@
         <f t="shared" si="0"/>
         <v>2977.3881390000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G46">
+        <v>17410</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -2203,8 +2342,11 @@
         <f t="shared" si="0"/>
         <v>7381.7611900000002</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G47">
+        <v>13958</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -2224,8 +2366,11 @@
         <f t="shared" si="0"/>
         <v>2962.2939190000002</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G48">
+        <v>20141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -2245,8 +2390,11 @@
         <f t="shared" si="0"/>
         <v>4151.6431810000004</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G49">
+        <v>27640</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2266,8 +2414,11 @@
         <f t="shared" si="0"/>
         <v>74613.763378999996</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G50">
+        <v>42354</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -2287,8 +2438,11 @@
         <f t="shared" si="0"/>
         <v>33931.471129999998</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G51">
+        <v>21194</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -2308,8 +2462,11 @@
         <f t="shared" si="0"/>
         <v>26763.164317999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G52">
+        <v>13381</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>262</v>
       </c>
@@ -2329,8 +2486,11 @@
         <f t="shared" si="0"/>
         <v>6000.0567389999997</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G53">
+        <v>16478</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -2350,8 +2510,11 @@
         <f t="shared" si="0"/>
         <v>31120.677901999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G54">
+        <v>15155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -2371,8 +2534,11 @@
         <f t="shared" si="0"/>
         <v>11774.65129</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G55">
+        <v>24685</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -2392,8 +2558,11 @@
         <f t="shared" si="0"/>
         <v>7522.3930490000002</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G56">
+        <v>18521</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -2413,8 +2582,11 @@
         <f t="shared" si="0"/>
         <v>5991.9809240000004</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G57">
+        <v>12933</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -2434,8 +2606,11 @@
         <f t="shared" si="0"/>
         <v>5111.494299</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G58">
+        <v>14770</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -2455,8 +2630,11 @@
         <f t="shared" si="0"/>
         <v>6280.973661</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G59">
+        <v>19303</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -2476,8 +2654,11 @@
         <f t="shared" si="0"/>
         <v>6784.2819980000004</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G60">
+        <v>20257</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -2497,8 +2678,11 @@
         <f t="shared" si="0"/>
         <v>8056.1755540000004</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G61">
+        <v>18938</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -2518,8 +2702,11 @@
         <f t="shared" si="0"/>
         <v>17031.194222999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G62">
+        <v>22509</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>23</v>
       </c>
@@ -2539,8 +2726,11 @@
         <f t="shared" si="0"/>
         <v>2997.3617020000002</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G63">
+        <v>22366</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>24</v>
       </c>
@@ -2560,8 +2750,11 @@
         <f t="shared" si="0"/>
         <v>3493.3330580000002</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G64">
+        <v>19270</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>25</v>
       </c>
@@ -2581,8 +2774,11 @@
         <f t="shared" si="0"/>
         <v>5182.880478</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G65">
+        <v>16392</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>26</v>
       </c>
@@ -2602,8 +2798,11 @@
         <f t="shared" si="0"/>
         <v>9995.5820750000003</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G66">
+        <v>17776</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>27</v>
       </c>
@@ -2620,11 +2819,14 @@
         <v>4912167262</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F77" si="1">E67/1000000</f>
+        <f t="shared" ref="F67:F74" si="1">E67/1000000</f>
         <v>4912.1672619999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G67">
+        <v>18884</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -2644,8 +2846,11 @@
         <f t="shared" si="1"/>
         <v>1854.05619</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G68">
+        <v>15138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>29</v>
       </c>
@@ -2665,8 +2870,11 @@
         <f t="shared" si="1"/>
         <v>2081.7738909999998</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G69">
+        <v>16387</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>30</v>
       </c>
@@ -2686,8 +2894,11 @@
         <f t="shared" si="1"/>
         <v>2983.9510519999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G70">
+        <v>17156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>31</v>
       </c>
@@ -2707,8 +2918,11 @@
         <f t="shared" si="1"/>
         <v>4242.6698200000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G71">
+        <v>27078</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>32</v>
       </c>
@@ -2728,8 +2942,11 @@
         <f t="shared" si="1"/>
         <v>5505.6208809999998</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G72">
+        <v>25695</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>33</v>
       </c>
@@ -2742,8 +2959,11 @@
       <c r="D73">
         <v>617.70000000000005</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G73" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -2763,8 +2983,11 @@
         <f t="shared" si="1"/>
         <v>3492.7540049999998</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G74">
+        <v>28570</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>35</v>
       </c>
@@ -2777,8 +3000,11 @@
       <c r="D75">
         <v>534.4</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G75" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -2791,8 +3017,11 @@
       <c r="D76">
         <v>1452.8</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G76" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>37</v>
       </c>
@@ -2804,6 +3033,9 @@
       </c>
       <c r="D77">
         <v>1448.4</v>
+      </c>
+      <c r="G77" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -2821,13 +3053,13 @@
       <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.234375" customWidth="1"/>
-    <col min="4" max="4" width="19.41015625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -2841,7 +3073,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2855,7 +3087,7 @@
         <v>5407.8549999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2869,7 +3101,7 @@
         <v>15115.206</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2883,7 +3115,7 @@
         <v>5640.6289999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2897,7 +3129,7 @@
         <v>6614.384</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2911,7 +3143,7 @@
         <v>3631.136</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2925,7 +3157,7 @@
         <v>8657.0079999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2939,7 +3171,7 @@
         <v>2060.0920000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2953,7 +3185,7 @@
         <v>9176.5460000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2967,7 +3199,7 @@
         <v>1494.6210000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2981,7 +3213,7 @@
         <v>2179.8200000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2995,7 +3227,7 @@
         <v>10679.950999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3009,7 +3241,7 @@
         <v>49405.807999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3023,7 +3255,7 @@
         <v>37032.410000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>262</v>
       </c>
@@ -3037,7 +3269,7 @@
         <v>3761.87</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3051,7 +3283,7 @@
         <v>41149.974000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3065,7 +3297,7 @@
         <v>12251.985000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3079,7 +3311,7 @@
         <v>4415.0640000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3093,7 +3325,7 @@
         <v>5473.6710000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3107,7 +3339,7 @@
         <v>5466.2849999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3121,7 +3353,7 @@
         <v>5541.3760000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3135,7 +3367,7 @@
         <v>2741.0749999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3149,7 +3381,7 @@
         <v>4182.08</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3163,7 +3395,7 @@
         <v>3859.7829999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3177,7 +3409,7 @@
         <v>727.755</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3191,7 +3423,7 @@
         <v>2659.5430000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3205,7 +3437,7 @@
         <v>3066.143</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3219,7 +3451,7 @@
         <v>9225.7469999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3233,7 +3465,7 @@
         <v>2701.6610000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -3247,7 +3479,7 @@
         <v>1192.7370000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3261,7 +3493,7 @@
         <v>1458.606</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3275,7 +3507,7 @@
         <v>1881.7270000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3289,7 +3521,7 @@
         <v>1319.338</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -3303,7 +3535,7 @@
         <v>1183.307</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3314,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -3328,7 +3560,7 @@
         <v>4418.5810000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3339,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3350,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3361,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -3375,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -3389,7 +3621,7 @@
         <v>4404.3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3403,7 +3635,7 @@
         <v>1511.9</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -3417,7 +3649,7 @@
         <v>12307.7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -3431,7 +3663,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -3445,7 +3677,7 @@
         <v>3736.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -3459,7 +3691,7 @@
         <v>10672.1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -3473,7 +3705,7 @@
         <v>1213.2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -3487,7 +3719,7 @@
         <v>3679.2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -3501,7 +3733,7 @@
         <v>49860.3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -3515,7 +3747,7 @@
         <v>37541</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -3529,7 +3761,7 @@
         <v>41527.9</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -3543,7 +3775,7 @@
         <v>5623.3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -3557,7 +3789,7 @@
         <v>4222.3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -3571,7 +3803,7 @@
         <v>2773.7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>22</v>
       </c>
@@ -3585,7 +3817,7 @@
         <v>3909.7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -3599,7 +3831,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -3613,7 +3845,7 @@
         <v>2152.6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -3627,7 +3859,7 @@
         <v>9314</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -3641,7 +3873,7 @@
         <v>1920.5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -3655,7 +3887,7 @@
         <v>1337.1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -3669,7 +3901,7 @@
         <v>5560.3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -3683,7 +3915,7 @@
         <v>5569.1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>34</v>
       </c>
@@ -3697,7 +3929,7 @@
         <v>1047.0999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>32</v>
       </c>
@@ -3711,7 +3943,7 @@
         <v>569.6</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -3725,7 +3957,7 @@
         <v>617.70000000000005</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>37</v>
       </c>
@@ -3739,7 +3971,7 @@
         <v>1448.4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>35</v>
       </c>
@@ -3753,7 +3985,7 @@
         <v>534.4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>36</v>
       </c>
@@ -3767,7 +3999,7 @@
         <v>1452.8</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -3781,7 +4013,7 @@
         <v>6642.9</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>29</v>
       </c>
@@ -3795,7 +4027,7 @@
         <v>1481.1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>26</v>
       </c>
@@ -3809,7 +4041,7 @@
         <v>9362.2999999999993</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>25</v>
       </c>
@@ -3823,7 +4055,7 @@
         <v>3086.8</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -3837,7 +4069,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -3851,7 +4083,7 @@
         <v>2681.5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -3865,7 +4097,7 @@
         <v>5757.2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -3879,7 +4111,7 @@
         <v>8743.5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -3916,13 +4148,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.234375" customWidth="1"/>
-    <col min="2" max="2" width="34.41015625" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3930,7 +4162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3938,7 +4170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -3946,7 +4178,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -3954,7 +4186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3962,7 +4194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>262</v>
       </c>
@@ -3970,7 +4202,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3978,7 +4210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -3986,7 +4218,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -3994,7 +4226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4002,7 +4234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4010,7 +4242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4018,7 +4250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -4026,7 +4258,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -4034,7 +4266,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -4042,7 +4274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -4050,7 +4282,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -4058,7 +4290,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -4066,7 +4298,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -4074,7 +4306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -4082,7 +4314,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -4090,7 +4322,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -4098,7 +4330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -4106,7 +4338,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -4114,7 +4346,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -4122,7 +4354,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -4130,7 +4362,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -4138,7 +4370,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4146,7 +4378,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -4154,7 +4386,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -4162,7 +4394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -4170,7 +4402,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -4178,7 +4410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -4186,7 +4418,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -4194,212 +4426,212 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>1</v>
       </c>
@@ -4420,16 +4652,16 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.3515625" customWidth="1"/>
-    <col min="2" max="2" width="13.76171875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.76171875" customWidth="1"/>
-    <col min="4" max="4" width="11.76171875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.76171875" style="4"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -4446,7 +4678,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4465,7 +4697,7 @@
         <v>1.3803069793846256E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4484,7 +4716,7 @@
         <v>1.7955031509329096E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4503,7 +4735,7 @@
         <v>2.06663122144711E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4522,7 +4754,7 @@
         <v>4.3112102351480688E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4541,7 +4773,7 @@
         <v>1.3236628977818471E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4560,7 +4792,7 @@
         <v>9.9909807175874374E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4579,7 +4811,7 @@
         <v>1.2576137376388968E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4598,7 +4830,7 @@
         <v>1.4978838443135328E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4617,7 +4849,7 @@
         <v>1.1560790327447557E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4636,7 +4868,7 @@
         <v>-1.2487269591067269E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4655,7 +4887,7 @@
         <v>-7.3511573227243729E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -4674,7 +4906,7 @@
         <v>9.19916136175742E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -4693,7 +4925,7 @@
         <v>1.3733645744362748E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -4712,7 +4944,7 @@
         <v>-6.7439863684816042E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -4731,7 +4963,7 @@
         <v>9.1841127287224881E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4750,7 +4982,7 @@
         <v>4.5474263966206411E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -4769,7 +5001,7 @@
         <v>-2.4380167535510522E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -4788,7 +5020,7 @@
         <v>1.5826490119702098E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -4807,7 +5039,7 @@
         <v>1.880893513602026E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4826,7 +5058,7 @@
         <v>1.4784053635775658E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -4845,7 +5077,7 @@
         <v>1.190226462245652E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -4864,7 +5096,7 @@
         <v>9.6172239651083329E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -4883,7 +5115,7 @@
         <v>1.293259232449076E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4902,7 +5134,7 @@
         <v>3.0848293725223522E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -4921,7 +5153,7 @@
         <v>8.2559296841599773E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -4940,7 +5172,7 @@
         <v>6.7371286988245991E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4959,7 +5191,7 @@
         <v>1.4801294681070259E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4978,7 +5210,7 @@
         <v>1.7522183575215372E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -4997,7 +5229,7 @@
         <v>1.7156338740225183E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -5016,7 +5248,7 @@
         <v>1.542157374918238E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -5035,7 +5267,7 @@
         <v>2.0605008059086098E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -5054,7 +5286,7 @@
         <v>1.3462812410466419E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -5073,7 +5305,7 @@
         <v>-0.51863717530615472</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -5092,7 +5324,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -5111,7 +5343,7 @@
         <v>-0.76302346839403878</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -5130,7 +5362,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -5149,7 +5381,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -5186,16 +5418,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.52734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.52734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.3515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.52734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -5218,7 +5450,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>52</v>
       </c>
@@ -5238,7 +5470,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -5261,7 +5493,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -5284,7 +5516,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -5307,7 +5539,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -5330,7 +5562,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -5353,7 +5585,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -5376,7 +5608,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -5399,7 +5631,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -5422,7 +5654,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -5445,7 +5677,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -5468,7 +5700,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -5491,7 +5723,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -5514,7 +5746,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -5537,7 +5769,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -5560,7 +5792,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -5583,7 +5815,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -5606,7 +5838,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -5629,7 +5861,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -5652,7 +5884,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -5675,7 +5907,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -5698,7 +5930,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -5721,7 +5953,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -5744,7 +5976,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -5767,7 +5999,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -5790,7 +6022,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -5813,7 +6045,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -5836,7 +6068,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -5859,7 +6091,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -5882,7 +6114,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -5905,7 +6137,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -5928,7 +6160,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -5951,7 +6183,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -5974,7 +6206,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -5997,7 +6229,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -6020,7 +6252,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -6043,7 +6275,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -6066,7 +6298,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -6089,7 +6321,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -6112,7 +6344,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -6135,7 +6367,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>256</v>
       </c>

--- a/macro.xlsx
+++ b/macro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\ufm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333DB5F1-33CF-438E-9D64-2CE2121D5FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429E0A6A-65F7-46C7-8B3A-4653EB05D256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11466" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gp" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="267">
   <si>
     <t>Aceh</t>
   </si>
@@ -851,6 +851,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>hrpay</t>
   </si>
 </sst>
 </file>
@@ -1250,19 +1253,19 @@
   <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G81" sqref="G81"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H1:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="22.234375" customWidth="1"/>
+    <col min="4" max="4" width="19.41015625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.76171875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1281,8 +1284,11 @@
       <c r="F1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1306,7 +1312,7 @@
         <v>16772</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1330,7 +1336,7 @@
         <v>15131</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1354,7 +1360,7 @@
         <v>15887</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1378,7 +1384,7 @@
         <v>18626</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1402,7 +1408,7 @@
         <v>16042</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1426,7 +1432,7 @@
         <v>15978</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1450,7 +1456,7 @@
         <v>16501</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1474,7 +1480,7 @@
         <v>13218</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1498,7 +1504,7 @@
         <v>18132</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1522,7 +1528,7 @@
         <v>23528</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1546,7 +1552,7 @@
         <v>32685</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1570,7 +1576,7 @@
         <v>19038</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1594,7 +1600,7 @@
         <v>12604</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>262</v>
       </c>
@@ -1618,7 +1624,7 @@
         <v>14916</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1642,7 +1648,7 @@
         <v>15119</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1666,7 +1672,7 @@
         <v>23880</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1690,7 +1696,7 @@
         <v>16857</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1714,7 +1720,7 @@
         <v>11734</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1738,7 +1744,7 @@
         <v>13012</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1762,7 +1768,7 @@
         <v>16337</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1786,7 +1792,7 @@
         <v>19795</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1810,7 +1816,7 @@
         <v>18661</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1834,7 +1840,7 @@
         <v>22281</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1858,7 +1864,7 @@
         <v>20320</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1882,7 +1888,7 @@
         <v>18335</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1906,7 +1912,7 @@
         <v>15890</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1930,7 +1936,7 @@
         <v>17257</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1954,7 +1960,7 @@
         <v>17542</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1978,7 +1984,7 @@
         <v>14289</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2002,7 +2008,7 @@
         <v>14774</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2026,7 +2032,7 @@
         <v>17006</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2050,7 +2056,7 @@
         <v>18278</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2074,7 +2080,7 @@
         <v>24128</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2088,7 +2094,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2112,7 +2118,7 @@
         <v>24097</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2126,7 +2132,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2140,7 +2146,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2154,7 +2160,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -2178,7 +2184,7 @@
         <v>17585</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -2202,7 +2208,7 @@
         <v>17609</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -2226,7 +2232,7 @@
         <v>16694</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -2250,7 +2256,7 @@
         <v>18413</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -2274,7 +2280,7 @@
         <v>17596</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -2298,7 +2304,7 @@
         <v>16273</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -2322,7 +2328,7 @@
         <v>17410</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -2346,7 +2352,7 @@
         <v>13958</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -2370,7 +2376,7 @@
         <v>20141</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -2394,7 +2400,7 @@
         <v>27640</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2418,7 +2424,7 @@
         <v>42354</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -2442,7 +2448,7 @@
         <v>21194</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -2466,7 +2472,7 @@
         <v>13381</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>262</v>
       </c>
@@ -2490,7 +2496,7 @@
         <v>16478</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -2514,7 +2520,7 @@
         <v>15155</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -2538,7 +2544,7 @@
         <v>24685</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -2562,7 +2568,7 @@
         <v>18521</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -2586,7 +2592,7 @@
         <v>12933</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -2610,7 +2616,7 @@
         <v>14770</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -2634,7 +2640,7 @@
         <v>19303</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -2658,7 +2664,7 @@
         <v>20257</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -2682,7 +2688,7 @@
         <v>18938</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -2706,7 +2712,7 @@
         <v>22509</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>23</v>
       </c>
@@ -2730,7 +2736,7 @@
         <v>22366</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>24</v>
       </c>
@@ -2754,7 +2760,7 @@
         <v>19270</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>25</v>
       </c>
@@ -2778,7 +2784,7 @@
         <v>16392</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>26</v>
       </c>
@@ -2802,7 +2808,7 @@
         <v>17776</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>27</v>
       </c>
@@ -2826,7 +2832,7 @@
         <v>18884</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -2850,7 +2856,7 @@
         <v>15138</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>29</v>
       </c>
@@ -2874,7 +2880,7 @@
         <v>16387</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>30</v>
       </c>
@@ -2898,7 +2904,7 @@
         <v>17156</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>31</v>
       </c>
@@ -2922,7 +2928,7 @@
         <v>27078</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>32</v>
       </c>
@@ -2946,7 +2952,7 @@
         <v>25695</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>33</v>
       </c>
@@ -2963,7 +2969,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -2987,7 +2993,7 @@
         <v>28570</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
         <v>35</v>
       </c>
@@ -3004,7 +3010,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -3021,7 +3027,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>37</v>
       </c>
@@ -3053,13 +3059,13 @@
       <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.234375" customWidth="1"/>
+    <col min="4" max="4" width="19.41015625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -3073,7 +3079,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3087,7 +3093,7 @@
         <v>5407.8549999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3101,7 +3107,7 @@
         <v>15115.206</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3115,7 +3121,7 @@
         <v>5640.6289999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3129,7 +3135,7 @@
         <v>6614.384</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3143,7 +3149,7 @@
         <v>3631.136</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3157,7 +3163,7 @@
         <v>8657.0079999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3171,7 +3177,7 @@
         <v>2060.0920000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3185,7 +3191,7 @@
         <v>9176.5460000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3199,7 +3205,7 @@
         <v>1494.6210000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3213,7 +3219,7 @@
         <v>2179.8200000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3227,7 +3233,7 @@
         <v>10679.950999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3241,7 +3247,7 @@
         <v>49405.807999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3255,7 +3261,7 @@
         <v>37032.410000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>262</v>
       </c>
@@ -3269,7 +3275,7 @@
         <v>3761.87</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3283,7 +3289,7 @@
         <v>41149.974000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3297,7 +3303,7 @@
         <v>12251.985000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3311,7 +3317,7 @@
         <v>4415.0640000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3325,7 +3331,7 @@
         <v>5473.6710000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3339,7 +3345,7 @@
         <v>5466.2849999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3353,7 +3359,7 @@
         <v>5541.3760000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3367,7 +3373,7 @@
         <v>2741.0749999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3381,7 +3387,7 @@
         <v>4182.08</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3395,7 +3401,7 @@
         <v>3859.7829999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3409,7 +3415,7 @@
         <v>727.755</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3423,7 +3429,7 @@
         <v>2659.5430000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3437,7 +3443,7 @@
         <v>3066.143</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3451,7 +3457,7 @@
         <v>9225.7469999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3465,7 +3471,7 @@
         <v>2701.6610000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -3479,7 +3485,7 @@
         <v>1192.7370000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3493,7 +3499,7 @@
         <v>1458.606</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3507,7 +3513,7 @@
         <v>1881.7270000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3521,7 +3527,7 @@
         <v>1319.338</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -3535,7 +3541,7 @@
         <v>1183.307</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3546,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -3560,7 +3566,7 @@
         <v>4418.5810000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3571,7 +3577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3582,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3593,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -3607,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -3621,7 +3627,7 @@
         <v>4404.3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3635,7 +3641,7 @@
         <v>1511.9</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -3649,7 +3655,7 @@
         <v>12307.7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -3663,7 +3669,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -3677,7 +3683,7 @@
         <v>3736.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -3691,7 +3697,7 @@
         <v>10672.1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -3705,7 +3711,7 @@
         <v>1213.2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -3719,7 +3725,7 @@
         <v>3679.2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -3733,7 +3739,7 @@
         <v>49860.3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -3747,7 +3753,7 @@
         <v>37541</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -3761,7 +3767,7 @@
         <v>41527.9</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -3775,7 +3781,7 @@
         <v>5623.3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -3789,7 +3795,7 @@
         <v>4222.3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -3803,7 +3809,7 @@
         <v>2773.7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>22</v>
       </c>
@@ -3817,7 +3823,7 @@
         <v>3909.7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -3831,7 +3837,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -3845,7 +3851,7 @@
         <v>2152.6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -3859,7 +3865,7 @@
         <v>9314</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -3873,7 +3879,7 @@
         <v>1920.5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -3887,7 +3893,7 @@
         <v>1337.1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -3901,7 +3907,7 @@
         <v>5560.3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -3915,7 +3921,7 @@
         <v>5569.1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>34</v>
       </c>
@@ -3929,7 +3935,7 @@
         <v>1047.0999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>32</v>
       </c>
@@ -3943,7 +3949,7 @@
         <v>569.6</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -3957,7 +3963,7 @@
         <v>617.70000000000005</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>37</v>
       </c>
@@ -3971,7 +3977,7 @@
         <v>1448.4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>35</v>
       </c>
@@ -3985,7 +3991,7 @@
         <v>534.4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>36</v>
       </c>
@@ -3999,7 +4005,7 @@
         <v>1452.8</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -4013,7 +4019,7 @@
         <v>6642.9</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>29</v>
       </c>
@@ -4027,7 +4033,7 @@
         <v>1481.1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>26</v>
       </c>
@@ -4041,7 +4047,7 @@
         <v>9362.2999999999993</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>25</v>
       </c>
@@ -4055,7 +4061,7 @@
         <v>3086.8</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -4069,7 +4075,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -4083,7 +4089,7 @@
         <v>2681.5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -4097,7 +4103,7 @@
         <v>5757.2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -4111,7 +4117,7 @@
         <v>8743.5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -4148,13 +4154,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="27.21875" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" customWidth="1"/>
+    <col min="1" max="1" width="27.234375" customWidth="1"/>
+    <col min="2" max="2" width="34.41015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4162,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4170,7 +4176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -4178,7 +4184,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -4186,7 +4192,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4194,7 +4200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>262</v>
       </c>
@@ -4202,7 +4208,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -4210,7 +4216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -4218,7 +4224,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -4226,7 +4232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4234,7 +4240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4242,7 +4248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4250,7 +4256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -4258,7 +4264,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -4266,7 +4272,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -4274,7 +4280,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -4282,7 +4288,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -4290,7 +4296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -4298,7 +4304,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -4306,7 +4312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -4314,7 +4320,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -4322,7 +4328,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -4330,7 +4336,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -4338,7 +4344,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -4346,7 +4352,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -4354,7 +4360,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -4362,7 +4368,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -4370,7 +4376,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4378,7 +4384,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -4386,7 +4392,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -4394,7 +4400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -4402,7 +4408,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -4410,7 +4416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -4418,7 +4424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -4426,212 +4432,212 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B39" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B42" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B43" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B44" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B45" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B46" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B47" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B48" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B49" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B50" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B51" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B52" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B53" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B54" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B55" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B56" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B57" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B58" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B59" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B60" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B61" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B62" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B63" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B64" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B65" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B66" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B67" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B68" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B69" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B70" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B71" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B72" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B73" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B74" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B75" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B76" t="s">
         <v>1</v>
       </c>
@@ -4652,16 +4658,16 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="4"/>
+    <col min="1" max="1" width="21.3515625" customWidth="1"/>
+    <col min="2" max="2" width="13.76171875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.76171875" customWidth="1"/>
+    <col min="4" max="4" width="11.76171875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.76171875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -4678,7 +4684,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4697,7 +4703,7 @@
         <v>1.3803069793846256E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4716,7 +4722,7 @@
         <v>1.7955031509329096E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4735,7 +4741,7 @@
         <v>2.06663122144711E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4754,7 +4760,7 @@
         <v>4.3112102351480688E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4773,7 +4779,7 @@
         <v>1.3236628977818471E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4792,7 +4798,7 @@
         <v>9.9909807175874374E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4811,7 +4817,7 @@
         <v>1.2576137376388968E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4830,7 +4836,7 @@
         <v>1.4978838443135328E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4849,7 +4855,7 @@
         <v>1.1560790327447557E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4868,7 +4874,7 @@
         <v>-1.2487269591067269E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4887,7 +4893,7 @@
         <v>-7.3511573227243729E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -4906,7 +4912,7 @@
         <v>9.19916136175742E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -4925,7 +4931,7 @@
         <v>1.3733645744362748E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -4944,7 +4950,7 @@
         <v>-6.7439863684816042E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -4963,7 +4969,7 @@
         <v>9.1841127287224881E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4982,7 +4988,7 @@
         <v>4.5474263966206411E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -5001,7 +5007,7 @@
         <v>-2.4380167535510522E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -5020,7 +5026,7 @@
         <v>1.5826490119702098E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -5039,7 +5045,7 @@
         <v>1.880893513602026E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -5058,7 +5064,7 @@
         <v>1.4784053635775658E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -5077,7 +5083,7 @@
         <v>1.190226462245652E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -5096,7 +5102,7 @@
         <v>9.6172239651083329E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -5115,7 +5121,7 @@
         <v>1.293259232449076E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -5134,7 +5140,7 @@
         <v>3.0848293725223522E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -5153,7 +5159,7 @@
         <v>8.2559296841599773E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -5172,7 +5178,7 @@
         <v>6.7371286988245991E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -5191,7 +5197,7 @@
         <v>1.4801294681070259E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -5210,7 +5216,7 @@
         <v>1.7522183575215372E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -5229,7 +5235,7 @@
         <v>1.7156338740225183E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -5248,7 +5254,7 @@
         <v>1.542157374918238E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -5267,7 +5273,7 @@
         <v>2.0605008059086098E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -5286,7 +5292,7 @@
         <v>1.3462812410466419E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -5305,7 +5311,7 @@
         <v>-0.51863717530615472</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -5324,7 +5330,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -5343,7 +5349,7 @@
         <v>-0.76302346839403878</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -5362,7 +5368,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -5381,7 +5387,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -5418,16 +5424,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.52734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.52734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.3515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.52734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -5450,7 +5456,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
         <v>52</v>
       </c>
@@ -5470,7 +5476,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -5493,7 +5499,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -5516,7 +5522,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -5539,7 +5545,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -5562,7 +5568,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -5585,7 +5591,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -5608,7 +5614,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -5631,7 +5637,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -5654,7 +5660,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -5677,7 +5683,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -5700,7 +5706,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -5723,7 +5729,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -5746,7 +5752,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -5769,7 +5775,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -5792,7 +5798,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -5815,7 +5821,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -5838,7 +5844,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -5861,7 +5867,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -5884,7 +5890,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -5907,7 +5913,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -5930,7 +5936,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -5953,7 +5959,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -5976,7 +5982,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -5999,7 +6005,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -6022,7 +6028,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -6045,7 +6051,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -6068,7 +6074,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -6091,7 +6097,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -6114,7 +6120,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -6137,7 +6143,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -6160,7 +6166,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -6183,7 +6189,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -6206,7 +6212,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -6229,7 +6235,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -6252,7 +6258,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -6275,7 +6281,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -6298,7 +6304,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -6321,7 +6327,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -6344,7 +6350,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -6367,7 +6373,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>256</v>
       </c>

--- a/macro.xlsx
+++ b/macro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\ufm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429E0A6A-65F7-46C7-8B3A-4653EB05D256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20190188-2B0C-4D52-8277-CB32A6BDC234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11466" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="269">
   <si>
     <t>Aceh</t>
   </si>
@@ -854,6 +854,12 @@
   </si>
   <si>
     <t>hrpay</t>
+  </si>
+  <si>
+    <t>umkm</t>
+  </si>
+  <si>
+    <t>worker</t>
   </si>
 </sst>
 </file>
@@ -1250,11 +1256,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H1:H4"/>
+      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1265,7 +1271,7 @@
     <col min="7" max="7" width="22.234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1287,8 +1293,14 @@
       <c r="G1" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1311,8 +1323,14 @@
       <c r="G2">
         <v>16772</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H2">
+        <v>1762.3892824026268</v>
+      </c>
+      <c r="I2">
+        <v>2327.9904099950872</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1335,8 +1353,14 @@
       <c r="G3">
         <v>15131</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H3">
+        <v>1791.7101725542243</v>
+      </c>
+      <c r="I3">
+        <v>2576.4416200761057</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1359,8 +1383,14 @@
       <c r="G4">
         <v>15887</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H4">
+        <v>1689.5860595798506</v>
+      </c>
+      <c r="I4">
+        <v>2655.7669247474028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1383,8 +1413,14 @@
       <c r="G5">
         <v>18626</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H5">
+        <v>2161.704896880151</v>
+      </c>
+      <c r="I5">
+        <v>2889.6909367796866</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1407,8 +1443,14 @@
       <c r="G6">
         <v>16042</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H6">
+        <v>2200.4278826628429</v>
+      </c>
+      <c r="I6">
+        <v>2520.767414794776</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1431,8 +1473,14 @@
       <c r="G7">
         <v>15978</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H7">
+        <v>1946.5565966114284</v>
+      </c>
+      <c r="I7">
+        <v>2630.6951652248767</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1455,8 +1503,14 @@
       <c r="G8">
         <v>16501</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H8">
+        <v>1701.3336420623802</v>
+      </c>
+      <c r="I8">
+        <v>2737.8341741983795</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1479,8 +1533,14 @@
       <c r="G9">
         <v>13218</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H9">
+        <v>1695.1983322679087</v>
+      </c>
+      <c r="I9">
+        <v>2322.7276201626801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1503,8 +1563,14 @@
       <c r="G10">
         <v>18132</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H10">
+        <v>2416.0530867360503</v>
+      </c>
+      <c r="I10">
+        <v>2969.1458288744984</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1527,8 +1593,14 @@
       <c r="G11">
         <v>23528</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H11">
+        <v>2364.2629325345324</v>
+      </c>
+      <c r="I11">
+        <v>4155.5195007827224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1551,8 +1623,14 @@
       <c r="G12">
         <v>32685</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H12">
+        <v>4495.5689963232244</v>
+      </c>
+      <c r="I12">
+        <v>5255.8236952022526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1575,8 +1653,14 @@
       <c r="G13">
         <v>19038</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H13">
+        <v>2099.1018398488072</v>
+      </c>
+      <c r="I13">
+        <v>3533.6127898955692</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1599,8 +1683,14 @@
       <c r="G14">
         <v>12604</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H14">
+        <v>1469.7875132912586</v>
+      </c>
+      <c r="I14">
+        <v>2200.7158450818129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>262</v>
       </c>
@@ -1623,8 +1713,14 @@
       <c r="G15">
         <v>14916</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H15">
+        <v>1471.4718479153541</v>
+      </c>
+      <c r="I15">
+        <v>2462.5829675300124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1647,8 +1743,14 @@
       <c r="G16">
         <v>15119</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H16">
+        <v>1791.4921702972529</v>
+      </c>
+      <c r="I16">
+        <v>2638.7515966473588</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1671,8 +1773,14 @@
       <c r="G17">
         <v>23880</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H17">
+        <v>2576.3604426042043</v>
+      </c>
+      <c r="I17">
+        <v>4370.2782325343214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1695,8 +1803,14 @@
       <c r="G18">
         <v>16857</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H18">
+        <v>1996.2170057231042</v>
+      </c>
+      <c r="I18">
+        <v>3002.5341747646125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1719,8 +1833,14 @@
       <c r="G19">
         <v>11734</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H19">
+        <v>1375.4653474131503</v>
+      </c>
+      <c r="I19">
+        <v>2218.4136951327328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1743,8 +1863,14 @@
       <c r="G20">
         <v>13012</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H20">
+        <v>1045.6346748355591</v>
+      </c>
+      <c r="I20">
+        <v>2100.927482709244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1767,8 +1893,14 @@
       <c r="G21">
         <v>16337</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H21">
+        <v>1807.5048662816876</v>
+      </c>
+      <c r="I21">
+        <v>2645.9198379501968</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1791,8 +1923,14 @@
       <c r="G22">
         <v>19795</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H22">
+        <v>2362.7440396571528</v>
+      </c>
+      <c r="I22">
+        <v>3195.3062295133354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1815,8 +1953,14 @@
       <c r="G23">
         <v>18661</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H23">
+        <v>1831.1340418155985</v>
+      </c>
+      <c r="I23">
+        <v>2898.4857043923566</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1839,8 +1983,14 @@
       <c r="G24">
         <v>22281</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H24">
+        <v>2642.4479018156076</v>
+      </c>
+      <c r="I24">
+        <v>3963.7315009664621</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1863,8 +2013,14 @@
       <c r="G25">
         <v>20320</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H25">
+        <v>2243.9588122103223</v>
+      </c>
+      <c r="I25">
+        <v>3427.7587680015317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1887,8 +2043,14 @@
       <c r="G26">
         <v>18335</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H26">
+        <v>2224.585789596646</v>
+      </c>
+      <c r="I26">
+        <v>3240.21674996814</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1911,8 +2073,14 @@
       <c r="G27">
         <v>15890</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H27">
+        <v>1696.084789192302</v>
+      </c>
+      <c r="I27">
+        <v>2605.724076754263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1935,8 +2103,14 @@
       <c r="G28">
         <v>17257</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H28">
+        <v>2082.1083988702408</v>
+      </c>
+      <c r="I28">
+        <v>2876.9515868342078</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1959,8 +2133,14 @@
       <c r="G29">
         <v>17542</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H29">
+        <v>1845.34057080866</v>
+      </c>
+      <c r="I29">
+        <v>2831.9905382581119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1983,8 +2163,14 @@
       <c r="G30">
         <v>14289</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H30">
+        <v>1725.777681010253</v>
+      </c>
+      <c r="I30">
+        <v>2551.3006656250982</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2007,8 +2193,14 @@
       <c r="G31">
         <v>14774</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H31">
+        <v>1190.6577446578021</v>
+      </c>
+      <c r="I31">
+        <v>2340.5016801947318</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2031,8 +2223,14 @@
       <c r="G32">
         <v>17006</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H32">
+        <v>1487.505506189457</v>
+      </c>
+      <c r="I32">
+        <v>2719.2944641613726</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2055,8 +2253,14 @@
       <c r="G33">
         <v>18278</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H33">
+        <v>1819.2638419750147</v>
+      </c>
+      <c r="I33">
+        <v>2938.0807059976055</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2079,8 +2283,14 @@
       <c r="G34">
         <v>24128</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H34">
+        <v>2099.3973853129969</v>
+      </c>
+      <c r="I34">
+        <v>3283.2353047273273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2094,7 +2304,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2117,8 +2327,14 @@
       <c r="G36">
         <v>24097</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H36">
+        <v>2218.793258685238</v>
+      </c>
+      <c r="I36">
+        <v>3954.3824059972953</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2132,7 +2348,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2146,7 +2362,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2160,7 +2376,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -2183,8 +2399,14 @@
       <c r="G40">
         <v>17585</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H40">
+        <v>1843.242822357965</v>
+      </c>
+      <c r="I40">
+        <v>2594.5296967967492</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -2207,8 +2429,14 @@
       <c r="G41">
         <v>17609</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H41">
+        <v>1847.1206003762338</v>
+      </c>
+      <c r="I41">
+        <v>2610.5836810420751</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -2231,8 +2459,14 @@
       <c r="G42">
         <v>16694</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H42">
+        <v>1790.1410496344874</v>
+      </c>
+      <c r="I42">
+        <v>2753.5169568147435</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -2255,8 +2489,14 @@
       <c r="G43">
         <v>18413</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H43">
+        <v>2271.1209992692598</v>
+      </c>
+      <c r="I43">
+        <v>3011.0399239135418</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -2279,8 +2519,14 @@
       <c r="G44">
         <v>17596</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H44">
+        <v>2249.4095695815067</v>
+      </c>
+      <c r="I44">
+        <v>2668.4784579846041</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -2303,8 +2549,14 @@
       <c r="G45">
         <v>16273</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H45">
+        <v>1943.1803638457491</v>
+      </c>
+      <c r="I45">
+        <v>2767.6692353675662</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -2327,8 +2579,14 @@
       <c r="G46">
         <v>17410</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H46">
+        <v>1789.1658536492018</v>
+      </c>
+      <c r="I46">
+        <v>2740.7342461313738</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -2351,8 +2609,14 @@
       <c r="G47">
         <v>13958</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H47">
+        <v>1636.6638511607136</v>
+      </c>
+      <c r="I47">
+        <v>2424.538339368979</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -2375,8 +2639,14 @@
       <c r="G48">
         <v>20141</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H48">
+        <v>2441.2805049763533</v>
+      </c>
+      <c r="I48">
+        <v>3221.7472292806283</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -2399,8 +2669,14 @@
       <c r="G49">
         <v>27640</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H49">
+        <v>2925.3616500435401</v>
+      </c>
+      <c r="I49">
+        <v>4651.057076059823</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2423,8 +2699,14 @@
       <c r="G50">
         <v>42354</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H50">
+        <v>3713.2381071133736</v>
+      </c>
+      <c r="I50">
+        <v>5532.6240924103668</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -2447,8 +2729,14 @@
       <c r="G51">
         <v>21194</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H51">
+        <v>2236.1180855045759</v>
+      </c>
+      <c r="I51">
+        <v>3674.2360073951431</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -2471,8 +2759,14 @@
       <c r="G52">
         <v>13381</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H52">
+        <v>1565.8603612427175</v>
+      </c>
+      <c r="I52">
+        <v>2321.3444324769048</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>262</v>
       </c>
@@ -2495,8 +2789,14 @@
       <c r="G53">
         <v>16478</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H53">
+        <v>1420.3877644672573</v>
+      </c>
+      <c r="I53">
+        <v>2705.600832030259</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -2519,8 +2819,14 @@
       <c r="G54">
         <v>15155</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H54">
+        <v>1749.3598763728953</v>
+      </c>
+      <c r="I54">
+        <v>2654.0675741509617</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -2543,8 +2849,14 @@
       <c r="G55">
         <v>24685</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H55">
+        <v>2780.1105997838736</v>
+      </c>
+      <c r="I55">
+        <v>4378.0575542687357</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -2567,8 +2879,14 @@
       <c r="G56">
         <v>18521</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H56">
+        <v>2248.5644962684851</v>
+      </c>
+      <c r="I56">
+        <v>3380.8397333218904</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -2591,8 +2909,14 @@
       <c r="G57">
         <v>12933</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H57">
+        <v>1732.8712232677342</v>
+      </c>
+      <c r="I57">
+        <v>2344.6608456864633</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -2615,8 +2939,14 @@
       <c r="G58">
         <v>14770</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H58">
+        <v>1144.9802165951439</v>
+      </c>
+      <c r="I58">
+        <v>2339.8513115756059</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -2639,8 +2969,14 @@
       <c r="G59">
         <v>19303</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H59">
+        <v>1921.2916558744994</v>
+      </c>
+      <c r="I59">
+        <v>2796.6146217591199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -2663,8 +2999,14 @@
       <c r="G60">
         <v>20257</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H60">
+        <v>2549.6956869127075</v>
+      </c>
+      <c r="I60">
+        <v>3323.4569088185449</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -2687,8 +3029,14 @@
       <c r="G61">
         <v>18938</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H61">
+        <v>1844.3631566790818</v>
+      </c>
+      <c r="I61">
+        <v>3066.8835531845539</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -2711,8 +3059,14 @@
       <c r="G62">
         <v>22509</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H62">
+        <v>2928.4560488338375</v>
+      </c>
+      <c r="I62">
+        <v>4068.8933961503108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>23</v>
       </c>
@@ -2735,8 +3089,14 @@
       <c r="G63">
         <v>22366</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H63">
+        <v>2368.6938066011417</v>
+      </c>
+      <c r="I63">
+        <v>3599.652966803174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>24</v>
       </c>
@@ -2759,8 +3119,14 @@
       <c r="G64">
         <v>19270</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H64">
+        <v>2102.7663813015329</v>
+      </c>
+      <c r="I64">
+        <v>3282.2302619445904</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>25</v>
       </c>
@@ -2783,8 +3149,14 @@
       <c r="G65">
         <v>16392</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H65">
+        <v>1743.4359335755562</v>
+      </c>
+      <c r="I65">
+        <v>2648.195410648394</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>26</v>
       </c>
@@ -2807,8 +3179,14 @@
       <c r="G66">
         <v>17776</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H66">
+        <v>2089.470818269514</v>
+      </c>
+      <c r="I66">
+        <v>2969.9195047484659</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>27</v>
       </c>
@@ -2831,8 +3209,14 @@
       <c r="G67">
         <v>18884</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H67">
+        <v>1767.9408171158655</v>
+      </c>
+      <c r="I67">
+        <v>2876.3211513972019</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -2855,8 +3239,14 @@
       <c r="G68">
         <v>15138</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H68">
+        <v>1573.3621801439981</v>
+      </c>
+      <c r="I68">
+        <v>2570.1807065785338</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>29</v>
       </c>
@@ -2879,8 +3269,14 @@
       <c r="G69">
         <v>16387</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H69">
+        <v>1563.461459001973</v>
+      </c>
+      <c r="I69">
+        <v>2367.5344507133714</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>30</v>
       </c>
@@ -2903,8 +3299,14 @@
       <c r="G70">
         <v>17156</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H70">
+        <v>1632.5171696640473</v>
+      </c>
+      <c r="I70">
+        <v>2865.9893963060649</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>31</v>
       </c>
@@ -2927,8 +3329,14 @@
       <c r="G71">
         <v>27078</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H71">
+        <v>1887.9753995465494</v>
+      </c>
+      <c r="I71">
+        <v>3267.0842831106652</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>32</v>
       </c>
@@ -2951,8 +3359,14 @@
       <c r="G72">
         <v>25695</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H72">
+        <v>2510.2933189051059</v>
+      </c>
+      <c r="I72">
+        <v>3601.390373364286</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>33</v>
       </c>
@@ -2969,7 +3383,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -2992,8 +3406,14 @@
       <c r="G74">
         <v>28570</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H74">
+        <v>2344.9686340151047</v>
+      </c>
+      <c r="I74">
+        <v>4420.3896640234116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
         <v>35</v>
       </c>
@@ -3010,7 +3430,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -3027,7 +3447,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>37</v>
       </c>
